--- a/raw_data/20200818_saline/20200818_Sensor0_Test_59.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_59.xlsx
@@ -1,479 +1,895 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0055BA-77F6-4121-9847-0B45BDB8027F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>52202.888819</v>
       </c>
@@ -481,375 +897,375 @@
         <v>14.500802</v>
       </c>
       <c r="C2" s="1">
-        <v>897.988000</v>
+        <v>897.98800000000006</v>
       </c>
       <c r="D2" s="1">
-        <v>-189.342000</v>
+        <v>-189.34200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>52213.622247</v>
+        <v>52213.622246999999</v>
       </c>
       <c r="G2" s="1">
         <v>14.503784</v>
       </c>
       <c r="H2" s="1">
-        <v>915.159000</v>
+        <v>915.15899999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-160.375000</v>
+        <v>-160.375</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>52224.012476</v>
+        <v>52224.012476000004</v>
       </c>
       <c r="L2" s="1">
-        <v>14.506670</v>
+        <v>14.50667</v>
       </c>
       <c r="M2" s="1">
-        <v>939.396000</v>
+        <v>939.39599999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-116.905000</v>
+        <v>-116.905</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>52234.801418</v>
+        <v>52234.801418000003</v>
       </c>
       <c r="Q2" s="1">
         <v>14.509667</v>
       </c>
       <c r="R2" s="1">
-        <v>946.042000</v>
+        <v>946.04200000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-101.934000</v>
+        <v>-101.934</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>52245.356815</v>
+        <v>52245.356814999999</v>
       </c>
       <c r="V2" s="1">
         <v>14.512599</v>
       </c>
       <c r="W2" s="1">
-        <v>953.700000</v>
+        <v>953.7</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.203200</v>
+        <v>-89.203199999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>52255.808973</v>
+        <v>52255.808972999999</v>
       </c>
       <c r="AA2" s="1">
         <v>14.515502</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.787000</v>
+        <v>961.78700000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.323100</v>
+        <v>-80.323099999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>52266.347504</v>
+        <v>52266.347503999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>14.518430</v>
+        <v>14.51843</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.174000</v>
+        <v>967.17399999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.112600</v>
+        <v>-80.1126</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>52276.789746</v>
+        <v>52276.789746000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>14.521330</v>
+        <v>14.521330000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.458000</v>
+        <v>975.45799999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.187800</v>
+        <v>-88.187799999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>52287.171012</v>
+        <v>52287.171011999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>14.524214</v>
+        <v>14.524214000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.855000</v>
+        <v>984.85500000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.328000</v>
+        <v>-103.328</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>52297.764071</v>
+        <v>52297.764070999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>14.527157</v>
+        <v>14.527157000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.396000</v>
+        <v>996.39599999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.042000</v>
+        <v>-125.042</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>52308.561492</v>
+        <v>52308.561492000001</v>
       </c>
       <c r="AZ2" s="1">
         <v>14.530156</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.150000</v>
+        <v>1006.15</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.939000</v>
+        <v>-143.93899999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>52318.842586</v>
+        <v>52318.842585999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>14.533012</v>
+        <v>14.533011999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1051.980000</v>
+        <v>1051.98</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.262000</v>
+        <v>-229.262</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>52329.786315</v>
+        <v>52329.786314999998</v>
       </c>
       <c r="BJ2" s="1">
         <v>14.536052</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.090000</v>
+        <v>1132.0899999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.805000</v>
+        <v>-365.80500000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>52341.201709</v>
+        <v>52341.201709000001</v>
       </c>
       <c r="BO2" s="1">
         <v>14.539223</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.270000</v>
+        <v>1264.27</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.730000</v>
+        <v>-576.73</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>52351.645007</v>
+        <v>52351.645006999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>14.542124</v>
+        <v>14.542123999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1412.030000</v>
+        <v>1412.03</v>
       </c>
       <c r="BV2" s="1">
-        <v>-802.096000</v>
+        <v>-802.096</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>52362.374432</v>
+        <v>52362.374431999997</v>
       </c>
       <c r="BY2" s="1">
         <v>14.545104</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1574.770000</v>
+        <v>1574.77</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1037.510000</v>
+        <v>-1037.51</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>52373.790355</v>
+        <v>52373.790354999997</v>
       </c>
       <c r="CD2" s="1">
         <v>14.548275</v>
       </c>
       <c r="CE2" s="1">
-        <v>1986.100000</v>
+        <v>1986.1</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1586.710000</v>
+        <v>-1586.71</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>52203.603058</v>
+        <v>52203.603058000001</v>
       </c>
       <c r="B3" s="1">
         <v>14.501001</v>
       </c>
       <c r="C3" s="1">
-        <v>898.202000</v>
+        <v>898.202</v>
       </c>
       <c r="D3" s="1">
-        <v>-189.036000</v>
+        <v>-189.036</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>52213.961509</v>
+        <v>52213.961509000001</v>
       </c>
       <c r="G3" s="1">
         <v>14.503878</v>
       </c>
       <c r="H3" s="1">
-        <v>914.661000</v>
+        <v>914.66099999999994</v>
       </c>
       <c r="I3" s="1">
-        <v>-160.066000</v>
+        <v>-160.066</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>52224.361127</v>
+        <v>52224.361126999996</v>
       </c>
       <c r="L3" s="1">
         <v>14.506767</v>
       </c>
       <c r="M3" s="1">
-        <v>939.235000</v>
+        <v>939.23500000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.024000</v>
+        <v>-117.024</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>52235.164985</v>
+        <v>52235.164985000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>14.509768</v>
+        <v>14.509767999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>946.069000</v>
+        <v>946.06899999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-101.907000</v>
+        <v>-101.907</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>52246.032853</v>
+        <v>52246.032852999997</v>
       </c>
       <c r="V3" s="1">
-        <v>14.512787</v>
+        <v>14.512786999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>953.611000</v>
+        <v>953.61099999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.188700</v>
+        <v>-89.188699999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>52256.503901</v>
+        <v>52256.503900999996</v>
       </c>
       <c r="AA3" s="1">
         <v>14.515696</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.730000</v>
+        <v>961.73</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.336000</v>
+        <v>-80.335999999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>52266.766623</v>
+        <v>52266.766623000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>14.518546</v>
+        <v>14.518546000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.112000</v>
+        <v>967.11199999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.205000</v>
+        <v>-80.204999999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>52276.897379</v>
+        <v>52276.897379000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>14.521360</v>
+        <v>14.52136</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.463000</v>
+        <v>975.46299999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.207100</v>
+        <v>-88.207099999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>52287.532132</v>
@@ -858,240 +1274,240 @@
         <v>14.524314</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.847000</v>
+        <v>984.84699999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.311000</v>
+        <v>-103.31100000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>52298.175289</v>
+        <v>52298.175288999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>14.527271</v>
+        <v>14.527271000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.392000</v>
+        <v>996.39200000000005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.069000</v>
+        <v>-125.069</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>52308.943401</v>
+        <v>52308.943400999997</v>
       </c>
       <c r="AZ3" s="1">
         <v>14.530262</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.140000</v>
+        <v>1006.14</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.936000</v>
+        <v>-143.93600000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>52319.256217</v>
+        <v>52319.256217000002</v>
       </c>
       <c r="BE3" s="1">
         <v>14.533127</v>
       </c>
       <c r="BF3" s="1">
-        <v>1051.970000</v>
+        <v>1051.97</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.255000</v>
+        <v>-229.255</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>52330.242142</v>
+        <v>52330.242142000003</v>
       </c>
       <c r="BJ3" s="1">
         <v>14.536178</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.100000</v>
+        <v>1132.0999999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.837000</v>
+        <v>-365.83699999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>52341.320252</v>
+        <v>52341.320251999998</v>
       </c>
       <c r="BO3" s="1">
         <v>14.539256</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.270000</v>
+        <v>1264.27</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.806000</v>
+        <v>-576.80600000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>52352.084926</v>
+        <v>52352.084926000003</v>
       </c>
       <c r="BT3" s="1">
         <v>14.542246</v>
       </c>
       <c r="BU3" s="1">
-        <v>1412.040000</v>
+        <v>1412.04</v>
       </c>
       <c r="BV3" s="1">
-        <v>-802.225000</v>
+        <v>-802.22500000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>52362.837201</v>
+        <v>52362.837201000002</v>
       </c>
       <c r="BY3" s="1">
         <v>14.545233</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.020000</v>
+        <v>1575.02</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1037.580000</v>
+        <v>-1037.58</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>52374.387073</v>
+        <v>52374.387072999998</v>
       </c>
       <c r="CD3" s="1">
         <v>14.548441</v>
       </c>
       <c r="CE3" s="1">
-        <v>1984.430000</v>
+        <v>1984.43</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1587.740000</v>
+        <v>-1587.74</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>52203.953235</v>
+        <v>52203.953235000001</v>
       </c>
       <c r="B4" s="1">
-        <v>14.501098</v>
+        <v>14.501098000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>898.042000</v>
+        <v>898.04200000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>-189.185000</v>
+        <v>-189.185</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>52214.303252</v>
+        <v>52214.303251999998</v>
       </c>
       <c r="G4" s="1">
         <v>14.503973</v>
       </c>
       <c r="H4" s="1">
-        <v>914.793000</v>
+        <v>914.79300000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-160.574000</v>
+        <v>-160.57400000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>52224.707335</v>
+        <v>52224.707334999999</v>
       </c>
       <c r="L4" s="1">
-        <v>14.506863</v>
+        <v>14.506862999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>939.235000</v>
+        <v>939.23500000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.049000</v>
+        <v>-117.04900000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>52235.819704</v>
+        <v>52235.819704000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>14.509950</v>
+        <v>14.50995</v>
       </c>
       <c r="R4" s="1">
-        <v>946.100000</v>
+        <v>946.1</v>
       </c>
       <c r="S4" s="1">
-        <v>-101.879000</v>
+        <v>-101.879</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>52246.410283</v>
+        <v>52246.410282999997</v>
       </c>
       <c r="V4" s="1">
-        <v>14.512892</v>
+        <v>14.512892000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>953.630000</v>
+        <v>953.63</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.245300</v>
+        <v>-89.2453</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>52256.888300</v>
+        <v>52256.888299999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>14.515802</v>
+        <v>14.515802000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.732000</v>
+        <v>961.73199999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.367900</v>
+        <v>-80.367900000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>52267.114818</v>
+        <v>52267.114818000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>14.518643</v>
+        <v>14.518643000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.111000</v>
+        <v>967.11099999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.122100</v>
+        <v>-80.122100000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>52277.271857</v>
@@ -1100,103 +1516,103 @@
         <v>14.521464</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.463000</v>
+        <v>975.46299999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.210200</v>
+        <v>-88.2102</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>52287.894675</v>
+        <v>52287.894675000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>14.524415</v>
+        <v>14.524414999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.880000</v>
+        <v>984.88</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.332000</v>
+        <v>-103.33199999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>52298.594905</v>
+        <v>52298.594904999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>14.527387</v>
+        <v>14.527386999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.383000</v>
+        <v>996.38300000000004</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.053000</v>
+        <v>-125.053</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>52309.366521</v>
+        <v>52309.366521000004</v>
       </c>
       <c r="AZ4" s="1">
-        <v>14.530380</v>
+        <v>14.530379999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1006.160000</v>
+        <v>1006.16</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.954000</v>
+        <v>-143.95400000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>52319.592505</v>
+        <v>52319.592505000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>14.533220</v>
+        <v>14.53322</v>
       </c>
       <c r="BF4" s="1">
-        <v>1051.970000</v>
+        <v>1051.97</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.226000</v>
+        <v>-229.226</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>52330.642874</v>
+        <v>52330.642873999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>14.536290</v>
+        <v>14.536289999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.080000</v>
+        <v>1132.08</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.872000</v>
+        <v>-365.87200000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>52341.733454</v>
+        <v>52341.733454000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>14.539370</v>
+        <v>14.53937</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.280000</v>
+        <v>1264.28</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.764000</v>
+        <v>-576.76400000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>52352.520911</v>
@@ -1205,362 +1621,362 @@
         <v>14.542367</v>
       </c>
       <c r="BU4" s="1">
-        <v>1411.990000</v>
+        <v>1411.99</v>
       </c>
       <c r="BV4" s="1">
-        <v>-802.225000</v>
+        <v>-802.22500000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>52363.627855</v>
+        <v>52363.627854999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>14.545452</v>
+        <v>14.545451999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1574.920000</v>
+        <v>1574.92</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1037.420000</v>
+        <v>-1037.42</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>52374.925726</v>
+        <v>52374.925726000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>14.548590</v>
+        <v>14.548590000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1986.280000</v>
+        <v>1986.28</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1588.150000</v>
+        <v>-1588.15</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>52204.295010</v>
+        <v>52204.295010000002</v>
       </c>
       <c r="B5" s="1">
-        <v>14.501193</v>
+        <v>14.501193000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>898.104000</v>
+        <v>898.10400000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-189.139000</v>
+        <v>-189.13900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>52214.959957</v>
+        <v>52214.959956999999</v>
       </c>
       <c r="G5" s="1">
         <v>14.504156</v>
       </c>
       <c r="H5" s="1">
-        <v>915.026000</v>
+        <v>915.02599999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-160.085000</v>
+        <v>-160.08500000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>52225.365029</v>
+        <v>52225.365029000001</v>
       </c>
       <c r="L5" s="1">
-        <v>14.507046</v>
+        <v>14.507046000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>939.164000</v>
+        <v>939.16399999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-116.877000</v>
+        <v>-116.877</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>52236.215513</v>
+        <v>52236.215513000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>14.510060</v>
+        <v>14.510059999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>946.119000</v>
+        <v>946.11900000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-101.900000</v>
+        <v>-101.9</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>52246.752521</v>
+        <v>52246.752521000002</v>
       </c>
       <c r="V5" s="1">
-        <v>14.512987</v>
+        <v>14.512987000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>953.622000</v>
+        <v>953.62199999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.286900</v>
+        <v>-89.286900000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>52257.238445</v>
+        <v>52257.238445000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>14.515900</v>
+        <v>14.5159</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.749000</v>
+        <v>961.74900000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.370100</v>
+        <v>-80.370099999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>52267.455038</v>
       </c>
       <c r="AF5" s="1">
-        <v>14.518738</v>
+        <v>14.518738000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.171000</v>
+        <v>967.17100000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.218700</v>
+        <v>-80.218699999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>52277.620544</v>
+        <v>52277.620543999998</v>
       </c>
       <c r="AK5" s="1">
         <v>14.521561</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.438000</v>
+        <v>975.43799999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.188300</v>
+        <v>-88.188299999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>52288.310324</v>
+        <v>52288.310323999998</v>
       </c>
       <c r="AP5" s="1">
         <v>14.524531</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.859000</v>
+        <v>984.85900000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.322000</v>
+        <v>-103.322</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>52298.904600</v>
+        <v>52298.904600000002</v>
       </c>
       <c r="AU5" s="1">
         <v>14.527474</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.420000</v>
+        <v>996.42</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.066000</v>
+        <v>-125.066</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>52309.662104</v>
+        <v>52309.662104000003</v>
       </c>
       <c r="AZ5" s="1">
         <v>14.530462</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.150000</v>
+        <v>1006.15</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.935000</v>
+        <v>-143.935</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>52319.952641</v>
+        <v>52319.952641000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>14.533320</v>
+        <v>14.53332</v>
       </c>
       <c r="BF5" s="1">
-        <v>1051.990000</v>
+        <v>1051.99</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.248000</v>
+        <v>-229.24799999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>52331.017877</v>
+        <v>52331.017876999998</v>
       </c>
       <c r="BJ5" s="1">
         <v>14.536394</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.110000</v>
+        <v>1132.1099999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.790000</v>
+        <v>-365.79</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>52342.128767</v>
+        <v>52342.128767000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>14.539480</v>
+        <v>14.539479999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.270000</v>
+        <v>1264.27</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.803000</v>
+        <v>-576.803</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>52352.946013</v>
+        <v>52352.946013000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>14.542485</v>
+        <v>14.542484999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1412.030000</v>
+        <v>1412.03</v>
       </c>
       <c r="BV5" s="1">
-        <v>-802.347000</v>
+        <v>-802.34699999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>52364.156103</v>
+        <v>52364.156103000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>14.545599</v>
+        <v>14.545598999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1574.840000</v>
+        <v>1574.84</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1037.470000</v>
+        <v>-1037.47</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>52375.462367</v>
       </c>
       <c r="CD5" s="1">
-        <v>14.548740</v>
+        <v>14.54874</v>
       </c>
       <c r="CE5" s="1">
-        <v>1984.650000</v>
+        <v>1984.65</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1586.670000</v>
+        <v>-1586.67</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>52204.947253</v>
+        <v>52204.947252999998</v>
       </c>
       <c r="B6" s="1">
         <v>14.501374</v>
       </c>
       <c r="C6" s="1">
-        <v>897.878000</v>
+        <v>897.87800000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-188.986000</v>
+        <v>-188.98599999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>52215.336419</v>
+        <v>52215.336418999999</v>
       </c>
       <c r="G6" s="1">
-        <v>14.504260</v>
+        <v>14.50426</v>
       </c>
       <c r="H6" s="1">
-        <v>915.062000</v>
+        <v>915.06200000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-160.259000</v>
+        <v>-160.25899999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>52225.741502</v>
+        <v>52225.741501999997</v>
       </c>
       <c r="L6" s="1">
-        <v>14.507150</v>
+        <v>14.507149999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>939.163000</v>
+        <v>939.16300000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-116.855000</v>
+        <v>-116.855</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>52236.560727</v>
+        <v>52236.560726999996</v>
       </c>
       <c r="Q6" s="1">
         <v>14.510156</v>
       </c>
       <c r="R6" s="1">
-        <v>946.103000</v>
+        <v>946.10299999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-101.910000</v>
+        <v>-101.91</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>52247.100218</v>
@@ -1569,1041 +1985,1041 @@
         <v>14.513083</v>
       </c>
       <c r="W6" s="1">
-        <v>953.718000</v>
+        <v>953.71799999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.285500</v>
+        <v>-89.285499999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>52257.585676</v>
+        <v>52257.585676000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>14.515996</v>
+        <v>14.515995999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.778000</v>
+        <v>961.77800000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.328200</v>
+        <v>-80.328199999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>52267.875645</v>
       </c>
       <c r="AF6" s="1">
-        <v>14.518854</v>
+        <v>14.518853999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.173000</v>
+        <v>967.173</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.163000</v>
+        <v>-80.162999999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>52278.315937</v>
+        <v>52278.315936999999</v>
       </c>
       <c r="AK6" s="1">
         <v>14.521754</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.464000</v>
+        <v>975.46400000000006</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.221700</v>
+        <v>-88.221699999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>52288.612386</v>
+        <v>52288.612386000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>14.524615</v>
+        <v>14.524615000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.865000</v>
+        <v>984.86500000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.311000</v>
+        <v>-103.31100000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>52299.270420</v>
+        <v>52299.270420000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>14.527575</v>
+        <v>14.527575000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.401000</v>
+        <v>996.40099999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.061000</v>
+        <v>-125.06100000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>52310.021206</v>
+        <v>52310.021205999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>14.530561</v>
+        <v>14.530561000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1006.170000</v>
+        <v>1006.17</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.965000</v>
+        <v>-143.965</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>52320.312698</v>
+        <v>52320.312698000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>14.533420</v>
+        <v>14.53342</v>
       </c>
       <c r="BF6" s="1">
-        <v>1051.960000</v>
+        <v>1051.96</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.260000</v>
+        <v>-229.26</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>52331.767320</v>
+        <v>52331.767319999999</v>
       </c>
       <c r="BJ6" s="1">
         <v>14.536602</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.090000</v>
+        <v>1132.0899999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.819000</v>
+        <v>-365.81900000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>52342.548347</v>
+        <v>52342.548347000004</v>
       </c>
       <c r="BO6" s="1">
-        <v>14.539597</v>
+        <v>14.539597000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.290000</v>
+        <v>1264.29</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.794000</v>
+        <v>-576.79399999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>52353.361656</v>
+        <v>52353.361656000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>14.542600</v>
+        <v>14.5426</v>
       </c>
       <c r="BU6" s="1">
-        <v>1412.040000</v>
+        <v>1412.04</v>
       </c>
       <c r="BV6" s="1">
-        <v>-802.479000</v>
+        <v>-802.47900000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>52364.589566</v>
+        <v>52364.589566000002</v>
       </c>
       <c r="BY6" s="1">
         <v>14.545719</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1575.020000</v>
+        <v>1575.02</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1037.570000</v>
+        <v>-1037.57</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>52376.003504</v>
       </c>
       <c r="CD6" s="1">
-        <v>14.548890</v>
+        <v>14.54889</v>
       </c>
       <c r="CE6" s="1">
-        <v>1985.480000</v>
+        <v>1985.48</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1588.520000</v>
+        <v>-1588.52</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>52205.320704</v>
+        <v>52205.320703999998</v>
       </c>
       <c r="B7" s="1">
-        <v>14.501478</v>
+        <v>14.501478000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>897.810000</v>
+        <v>897.81</v>
       </c>
       <c r="D7" s="1">
-        <v>-189.130000</v>
+        <v>-189.13</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>52215.680146</v>
+        <v>52215.680145999999</v>
       </c>
       <c r="G7" s="1">
         <v>14.504356</v>
       </c>
       <c r="H7" s="1">
-        <v>915.133000</v>
+        <v>915.13300000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-160.272000</v>
+        <v>-160.27199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>52226.100101</v>
+        <v>52226.100101000004</v>
       </c>
       <c r="L7" s="1">
-        <v>14.507250</v>
+        <v>14.507250000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>938.965000</v>
+        <v>938.96500000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-116.715000</v>
+        <v>-116.715</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>52236.909421</v>
+        <v>52236.909420999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.510253</v>
+        <v>14.510253000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>946.092000</v>
+        <v>946.09199999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-101.883000</v>
+        <v>-101.883</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>52247.528309</v>
+        <v>52247.528309000001</v>
       </c>
       <c r="V7" s="1">
         <v>14.513202</v>
       </c>
       <c r="W7" s="1">
-        <v>953.760000</v>
+        <v>953.76</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.301800</v>
+        <v>-89.3018</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>52258.007243</v>
       </c>
       <c r="AA7" s="1">
-        <v>14.516113</v>
+        <v>14.516113000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.842000</v>
+        <v>961.84199999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.362400</v>
+        <v>-80.362399999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>52268.154893</v>
+        <v>52268.154892999999</v>
       </c>
       <c r="AF7" s="1">
         <v>14.518932</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.170000</v>
+        <v>967.17</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.199900</v>
+        <v>-80.1999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>52278.664127</v>
+        <v>52278.664126999996</v>
       </c>
       <c r="AK7" s="1">
         <v>14.521851</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.479000</v>
+        <v>975.47900000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.180100</v>
+        <v>-88.180099999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>52288.973971</v>
+        <v>52288.973970999999</v>
       </c>
       <c r="AP7" s="1">
         <v>14.524715</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.854000</v>
+        <v>984.85400000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.311000</v>
+        <v>-103.31100000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>52299.637803</v>
+        <v>52299.637802999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>14.527677</v>
+        <v>14.527677000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.413000</v>
+        <v>996.41300000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.046000</v>
+        <v>-125.04600000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>52310.380347</v>
+        <v>52310.380346999998</v>
       </c>
       <c r="AZ7" s="1">
         <v>14.530661</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.170000</v>
+        <v>1006.17</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.922000</v>
+        <v>-143.922</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>52321.036116</v>
+        <v>52321.036116000003</v>
       </c>
       <c r="BE7" s="1">
         <v>14.533621</v>
       </c>
       <c r="BF7" s="1">
-        <v>1051.950000</v>
+        <v>1051.95</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.250000</v>
+        <v>-229.25</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>52332.141288</v>
+        <v>52332.141287999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>14.536706</v>
+        <v>14.536706000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.100000</v>
+        <v>1132.0999999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.838000</v>
+        <v>-365.83800000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>52342.945644</v>
+        <v>52342.945643999999</v>
       </c>
       <c r="BO7" s="1">
         <v>14.539707</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.300000</v>
+        <v>1264.3</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.811000</v>
+        <v>-576.81100000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>52353.777772</v>
+        <v>52353.777772000001</v>
       </c>
       <c r="BT7" s="1">
         <v>14.542716</v>
       </c>
       <c r="BU7" s="1">
-        <v>1412.150000</v>
+        <v>1412.15</v>
       </c>
       <c r="BV7" s="1">
-        <v>-802.507000</v>
+        <v>-802.50699999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>52365.320669</v>
+        <v>52365.320669000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>14.545922</v>
+        <v>14.545921999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1574.910000</v>
+        <v>1574.91</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1037.470000</v>
+        <v>-1037.47</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>52376.849715</v>
+        <v>52376.849714999997</v>
       </c>
       <c r="CD7" s="1">
         <v>14.549125</v>
       </c>
       <c r="CE7" s="1">
-        <v>1984.430000</v>
+        <v>1984.43</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1587.390000</v>
+        <v>-1587.39</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>52205.664433</v>
+        <v>52205.664432999998</v>
       </c>
       <c r="B8" s="1">
         <v>14.501573</v>
       </c>
       <c r="C8" s="1">
-        <v>897.853000</v>
+        <v>897.85299999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-188.895000</v>
+        <v>-188.89500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>52216.028643</v>
+        <v>52216.028642999998</v>
       </c>
       <c r="G8" s="1">
-        <v>14.504452</v>
+        <v>14.504452000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>915.012000</v>
+        <v>915.01199999999994</v>
       </c>
       <c r="I8" s="1">
-        <v>-160.464000</v>
+        <v>-160.464</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>52226.439366</v>
+        <v>52226.439365999999</v>
       </c>
       <c r="L8" s="1">
         <v>14.507344</v>
       </c>
       <c r="M8" s="1">
-        <v>938.894000</v>
+        <v>938.89400000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.529000</v>
+        <v>-116.529</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>52237.330518</v>
+        <v>52237.330518000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>14.510370</v>
+        <v>14.51037</v>
       </c>
       <c r="R8" s="1">
-        <v>946.058000</v>
+        <v>946.05799999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-101.861000</v>
+        <v>-101.861</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>52247.804040</v>
+        <v>52247.804040000003</v>
       </c>
       <c r="V8" s="1">
-        <v>14.513279</v>
+        <v>14.513279000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>953.656000</v>
+        <v>953.65599999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.242700</v>
+        <v>-89.242699999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>52258.284010</v>
+        <v>52258.284010000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.516190</v>
+        <v>14.51619</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.822000</v>
+        <v>961.822</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.376300</v>
+        <v>-80.376300000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>52268.497134</v>
+        <v>52268.497133999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>14.519027</v>
+        <v>14.519026999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.265000</v>
+        <v>967.26499999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.293800</v>
+        <v>-80.293800000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>52279.013343</v>
+        <v>52279.013342999999</v>
       </c>
       <c r="AK8" s="1">
         <v>14.521948</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.486000</v>
+        <v>975.48599999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.219300</v>
+        <v>-88.219300000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>52289.334597</v>
+        <v>52289.334597000001</v>
       </c>
       <c r="AP8" s="1">
         <v>14.524815</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.860000</v>
+        <v>984.86</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.314000</v>
+        <v>-103.31399999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>52300.366611</v>
+        <v>52300.366610999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>14.527880</v>
+        <v>14.52788</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.414000</v>
+        <v>996.41399999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.063000</v>
+        <v>-125.063</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>52311.103344</v>
+        <v>52311.103344000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>14.530862</v>
+        <v>14.530862000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.150000</v>
+        <v>1006.15</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.954000</v>
+        <v>-143.95400000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>52321.396482</v>
+        <v>52321.396481999996</v>
       </c>
       <c r="BE8" s="1">
         <v>14.533721</v>
       </c>
       <c r="BF8" s="1">
-        <v>1051.980000</v>
+        <v>1051.98</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.280000</v>
+        <v>-229.28</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>52332.520233</v>
+        <v>52332.520233000003</v>
       </c>
       <c r="BJ8" s="1">
         <v>14.536811</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.120000</v>
+        <v>1132.1199999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.836000</v>
+        <v>-365.83600000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>52343.367288</v>
+        <v>52343.367288000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>14.539824</v>
+        <v>14.539823999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.220000</v>
+        <v>1264.22</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.804000</v>
+        <v>-576.80399999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>52354.533708</v>
+        <v>52354.533708000003</v>
       </c>
       <c r="BT8" s="1">
         <v>14.542926</v>
       </c>
       <c r="BU8" s="1">
-        <v>1412.170000</v>
+        <v>1412.17</v>
       </c>
       <c r="BV8" s="1">
-        <v>-802.513000</v>
+        <v>-802.51300000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>52365.459548</v>
+        <v>52365.459547999999</v>
       </c>
       <c r="BY8" s="1">
         <v>14.545961</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1574.950000</v>
+        <v>1574.95</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1037.450000</v>
+        <v>-1037.45</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>52377.083790</v>
+        <v>52377.083789999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>14.549190</v>
+        <v>14.549189999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1984.280000</v>
+        <v>1984.28</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1587.430000</v>
+        <v>-1587.43</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>52206.013654</v>
+        <v>52206.013654000002</v>
       </c>
       <c r="B9" s="1">
-        <v>14.501670</v>
+        <v>14.501670000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>898.009000</v>
+        <v>898.00900000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-188.853000</v>
+        <v>-188.85300000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>52216.454897</v>
+        <v>52216.454897000003</v>
       </c>
       <c r="G9" s="1">
         <v>14.504571</v>
       </c>
       <c r="H9" s="1">
-        <v>915.111000</v>
+        <v>915.11099999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-160.390000</v>
+        <v>-160.38999999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>52227.130292</v>
+        <v>52227.130292000002</v>
       </c>
       <c r="L9" s="1">
         <v>14.507536</v>
       </c>
       <c r="M9" s="1">
-        <v>938.947000</v>
+        <v>938.947</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.654000</v>
+        <v>-116.654</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>52237.610262</v>
+        <v>52237.610262000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>14.510447</v>
+        <v>14.510446999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>946.032000</v>
+        <v>946.03200000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-101.868000</v>
+        <v>-101.86799999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>52248.147305</v>
+        <v>52248.147304999999</v>
       </c>
       <c r="V9" s="1">
-        <v>14.513374</v>
+        <v>14.513374000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>953.677000</v>
+        <v>953.67700000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.180200</v>
+        <v>-89.180199999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>52258.633689</v>
+        <v>52258.633689000002</v>
       </c>
       <c r="AA9" s="1">
         <v>14.516287</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.782000</v>
+        <v>961.78200000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.398800</v>
+        <v>-80.398799999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>52268.844830</v>
+        <v>52268.844830000002</v>
       </c>
       <c r="AF9" s="1">
         <v>14.519124</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.175000</v>
+        <v>967.17499999999995</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.239600</v>
+        <v>-80.239599999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>52279.710718</v>
+        <v>52279.710718000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>14.522142</v>
+        <v>14.522142000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.503000</v>
+        <v>975.50300000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.205400</v>
+        <v>-88.205399999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>52290.064178</v>
+        <v>52290.064178000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>14.525018</v>
+        <v>14.525017999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.857000</v>
+        <v>984.85699999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.297000</v>
+        <v>-103.297</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>52300.747538</v>
+        <v>52300.747538000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>14.527985</v>
+        <v>14.527984999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.390000</v>
+        <v>996.39</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.063000</v>
+        <v>-125.063</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>52311.477994</v>
+        <v>52311.477994000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>14.530966</v>
+        <v>14.530965999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.160000</v>
+        <v>1006.16</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.934000</v>
+        <v>-143.934</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>52321.758039</v>
       </c>
       <c r="BE9" s="1">
-        <v>14.533822</v>
+        <v>14.533822000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1051.980000</v>
+        <v>1051.98</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.248000</v>
+        <v>-229.24799999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>52333.210695</v>
+        <v>52333.210695000002</v>
       </c>
       <c r="BJ9" s="1">
         <v>14.537003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.100000</v>
+        <v>1132.0999999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.872000</v>
+        <v>-365.87200000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>52344.079000</v>
+        <v>52344.078999999998</v>
       </c>
       <c r="BO9" s="1">
         <v>14.540022</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.230000</v>
+        <v>1264.23</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.781000</v>
+        <v>-576.78099999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>52354.662140</v>
+        <v>52354.66214</v>
       </c>
       <c r="BT9" s="1">
-        <v>14.542962</v>
+        <v>14.542961999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1412.250000</v>
+        <v>1412.25</v>
       </c>
       <c r="BV9" s="1">
-        <v>-802.669000</v>
+        <v>-802.66899999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>52365.883629</v>
+        <v>52365.883629000004</v>
       </c>
       <c r="BY9" s="1">
-        <v>14.546079</v>
+        <v>14.546079000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1574.890000</v>
+        <v>1574.89</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1037.350000</v>
+        <v>-1037.3499999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>52377.600156</v>
       </c>
       <c r="CD9" s="1">
-        <v>14.549333</v>
+        <v>14.549333000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1985.580000</v>
+        <v>1985.58</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1588.690000</v>
+        <v>-1588.69</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>52206.435215</v>
+        <v>52206.435214999998</v>
       </c>
       <c r="B10" s="1">
-        <v>14.501788</v>
+        <v>14.501787999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>897.809000</v>
+        <v>897.80899999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-188.820000</v>
+        <v>-188.82</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>52216.730710</v>
+        <v>52216.730710000003</v>
       </c>
       <c r="G10" s="1">
         <v>14.504647</v>
       </c>
       <c r="H10" s="1">
-        <v>915.397000</v>
+        <v>915.39700000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-160.803000</v>
+        <v>-160.803</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>52227.475010</v>
+        <v>52227.475010000002</v>
       </c>
       <c r="L10" s="1">
-        <v>14.507632</v>
+        <v>14.507631999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>939.073000</v>
+        <v>939.07299999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-116.513000</v>
+        <v>-116.51300000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>52237.957461</v>
+        <v>52237.957460999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>14.510544</v>
+        <v>14.510543999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>946.095000</v>
+        <v>946.09500000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-101.864000</v>
+        <v>-101.864</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>52248.491508</v>
+        <v>52248.491507999999</v>
       </c>
       <c r="V10" s="1">
-        <v>14.513470</v>
+        <v>14.51347</v>
       </c>
       <c r="W10" s="1">
-        <v>953.627000</v>
+        <v>953.62699999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.170000</v>
+        <v>-89.17</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>52258.982377</v>
@@ -2612,225 +3028,225 @@
         <v>14.516384</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.814000</v>
+        <v>961.81399999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.340300</v>
+        <v>-80.340299999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>52269.528811</v>
+        <v>52269.528810999996</v>
       </c>
       <c r="AF10" s="1">
         <v>14.519314</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.175000</v>
+        <v>967.17499999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.189200</v>
+        <v>-80.1892</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>52280.058877</v>
+        <v>52280.058877000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>14.522239</v>
+        <v>14.522239000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.484000</v>
+        <v>975.48400000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.195000</v>
+        <v>-88.194999999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>52290.440641</v>
+        <v>52290.440641000001</v>
       </c>
       <c r="AP10" s="1">
         <v>14.525122</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.860000</v>
+        <v>984.86</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.309000</v>
+        <v>-103.309</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>52301.113059</v>
+        <v>52301.113059000003</v>
       </c>
       <c r="AU10" s="1">
-        <v>14.528087</v>
+        <v>14.528086999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.398000</v>
+        <v>996.39800000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.053000</v>
+        <v>-125.053</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>52311.867813</v>
+        <v>52311.867812999997</v>
       </c>
       <c r="AZ10" s="1">
         <v>14.531074</v>
       </c>
       <c r="BA10" s="1">
-        <v>1006.140000</v>
+        <v>1006.14</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.955000</v>
+        <v>-143.95500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>52322.436599</v>
+        <v>52322.436599000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>14.534010</v>
+        <v>14.53401</v>
       </c>
       <c r="BF10" s="1">
-        <v>1051.970000</v>
+        <v>1051.97</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.246000</v>
+        <v>-229.24600000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>52333.645691</v>
+        <v>52333.645690999998</v>
       </c>
       <c r="BJ10" s="1">
         <v>14.537124</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.120000</v>
+        <v>1132.1199999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.834000</v>
+        <v>-365.834</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>52344.202505</v>
+        <v>52344.202505000001</v>
       </c>
       <c r="BO10" s="1">
         <v>14.540056</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.260000</v>
+        <v>1264.26</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.815000</v>
+        <v>-576.81500000000005</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>52355.077322</v>
+        <v>52355.077321999997</v>
       </c>
       <c r="BT10" s="1">
         <v>14.543077</v>
       </c>
       <c r="BU10" s="1">
-        <v>1412.340000</v>
+        <v>1412.34</v>
       </c>
       <c r="BV10" s="1">
-        <v>-802.667000</v>
+        <v>-802.66700000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>52366.301792</v>
+        <v>52366.301791999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>14.546195</v>
+        <v>14.546195000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1575.140000</v>
+        <v>1575.14</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1037.590000</v>
+        <v>-1037.5899999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>52378.118477</v>
+        <v>52378.118477000004</v>
       </c>
       <c r="CD10" s="1">
         <v>14.549477</v>
       </c>
       <c r="CE10" s="1">
-        <v>1984.900000</v>
+        <v>1984.9</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1588.690000</v>
+        <v>-1588.69</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>52206.717475</v>
+        <v>52206.717474999998</v>
       </c>
       <c r="B11" s="1">
         <v>14.501866</v>
       </c>
       <c r="C11" s="1">
-        <v>897.613000</v>
+        <v>897.61300000000006</v>
       </c>
       <c r="D11" s="1">
-        <v>-188.543000</v>
+        <v>-188.54300000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>52217.077376</v>
+        <v>52217.077376000001</v>
       </c>
       <c r="G11" s="1">
-        <v>14.504744</v>
+        <v>14.504744000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>914.837000</v>
+        <v>914.83699999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-160.476000</v>
+        <v>-160.476</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>52227.821218</v>
+        <v>52227.821217999997</v>
       </c>
       <c r="L11" s="1">
         <v>14.507728</v>
       </c>
       <c r="M11" s="1">
-        <v>938.946000</v>
+        <v>938.94600000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-116.557000</v>
+        <v>-116.557</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>52238.309126</v>
@@ -2839,193 +3255,193 @@
         <v>14.510641</v>
       </c>
       <c r="R11" s="1">
-        <v>946.088000</v>
+        <v>946.08799999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-101.915000</v>
+        <v>-101.91500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>52249.177463</v>
       </c>
       <c r="V11" s="1">
-        <v>14.513660</v>
+        <v>14.51366</v>
       </c>
       <c r="W11" s="1">
-        <v>953.663000</v>
+        <v>953.66300000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.170700</v>
+        <v>-89.170699999999997</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>52259.680285</v>
+        <v>52259.680285000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>14.516578</v>
+        <v>14.516578000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.769000</v>
+        <v>961.76900000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.360100</v>
+        <v>-80.360100000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>52269.868572</v>
+        <v>52269.868571999999</v>
       </c>
       <c r="AF11" s="1">
         <v>14.519408</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.100000</v>
+        <v>967.1</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.175200</v>
+        <v>-80.175200000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>52280.409085</v>
+        <v>52280.409084999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>14.522336</v>
+        <v>14.522335999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.511000</v>
+        <v>975.51099999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.192300</v>
+        <v>-88.192300000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>52290.800736</v>
+        <v>52290.800735999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>14.525222</v>
+        <v>14.525221999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.883000</v>
+        <v>984.88300000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.318000</v>
+        <v>-103.318</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>52301.786130</v>
+        <v>52301.78613</v>
       </c>
       <c r="AU11" s="1">
         <v>14.528274</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.380000</v>
+        <v>996.38</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.065000</v>
+        <v>-125.065</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>52312.312262</v>
+        <v>52312.312261999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>14.531198</v>
       </c>
       <c r="BA11" s="1">
-        <v>1006.160000</v>
+        <v>1006.16</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.949000</v>
+        <v>-143.94900000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>52322.866597</v>
       </c>
       <c r="BE11" s="1">
-        <v>14.534130</v>
+        <v>14.534129999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1051.990000</v>
+        <v>1051.99</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.223000</v>
+        <v>-229.22300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>52334.022614</v>
+        <v>52334.022614000001</v>
       </c>
       <c r="BJ11" s="1">
         <v>14.537229</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.080000</v>
+        <v>1132.08</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.857000</v>
+        <v>-365.85700000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>52344.610216</v>
+        <v>52344.610216000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>14.540170</v>
+        <v>14.54017</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.240000</v>
+        <v>1264.24</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.751000</v>
+        <v>-576.75099999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>52355.506331</v>
+        <v>52355.506330999997</v>
       </c>
       <c r="BT11" s="1">
         <v>14.543196</v>
       </c>
       <c r="BU11" s="1">
-        <v>1412.420000</v>
+        <v>1412.42</v>
       </c>
       <c r="BV11" s="1">
-        <v>-802.658000</v>
+        <v>-802.65800000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>52366.757116</v>
+        <v>52366.757116000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>14.546321</v>
+        <v>14.546321000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1574.800000</v>
+        <v>1574.8</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1037.420000</v>
+        <v>-1037.42</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>52378.672971</v>
@@ -3034,255 +3450,255 @@
         <v>14.549631</v>
       </c>
       <c r="CE11" s="1">
-        <v>1984.240000</v>
+        <v>1984.24</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1588.120000</v>
+        <v>-1588.12</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>52207.056206</v>
+        <v>52207.056206000001</v>
       </c>
       <c r="B12" s="1">
-        <v>14.501960</v>
+        <v>14.50196</v>
       </c>
       <c r="C12" s="1">
-        <v>897.752000</v>
+        <v>897.75199999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-188.284000</v>
+        <v>-188.28399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>52217.419648</v>
+        <v>52217.419648000003</v>
       </c>
       <c r="G12" s="1">
         <v>14.504839</v>
       </c>
       <c r="H12" s="1">
-        <v>915.022000</v>
+        <v>915.02200000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-160.444000</v>
+        <v>-160.44399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>52228.505237</v>
+        <v>52228.505236999998</v>
       </c>
       <c r="L12" s="1">
         <v>14.507918</v>
       </c>
       <c r="M12" s="1">
-        <v>938.900000</v>
+        <v>938.9</v>
       </c>
       <c r="N12" s="1">
-        <v>-116.383000</v>
+        <v>-116.383</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>52239.004552</v>
+        <v>52239.004551999999</v>
       </c>
       <c r="Q12" s="1">
         <v>14.510835</v>
       </c>
       <c r="R12" s="1">
-        <v>946.086000</v>
+        <v>946.08600000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-101.905000</v>
+        <v>-101.905</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>52249.522182</v>
+        <v>52249.522182000001</v>
       </c>
       <c r="V12" s="1">
-        <v>14.513756</v>
+        <v>14.513756000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>953.595000</v>
+        <v>953.59500000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.095300</v>
+        <v>-89.095299999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>52260.038897</v>
+        <v>52260.038896999999</v>
       </c>
       <c r="AA12" s="1">
         <v>14.516677</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.787000</v>
+        <v>961.78700000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.340600</v>
+        <v>-80.340599999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>52270.211802</v>
+        <v>52270.211801999998</v>
       </c>
       <c r="AF12" s="1">
         <v>14.519503</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.206000</v>
+        <v>967.20600000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.129500</v>
+        <v>-80.129499999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>52281.063277</v>
+        <v>52281.063277000001</v>
       </c>
       <c r="AK12" s="1">
         <v>14.522518</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.522000</v>
+        <v>975.52200000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.208500</v>
+        <v>-88.208500000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>52291.468846</v>
+        <v>52291.468846000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>14.525408</v>
+        <v>14.525408000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.857000</v>
+        <v>984.85699999999997</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.313000</v>
+        <v>-103.313</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>52302.239968</v>
+        <v>52302.239968000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>14.528400</v>
+        <v>14.5284</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.405000</v>
+        <v>996.40499999999997</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.063000</v>
+        <v>-125.063</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>52312.586037</v>
+        <v>52312.586037000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>14.531274</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.170000</v>
+        <v>1006.17</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.948000</v>
+        <v>-143.94800000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>52323.225206</v>
+        <v>52323.225206000003</v>
       </c>
       <c r="BE12" s="1">
         <v>14.534229</v>
       </c>
       <c r="BF12" s="1">
-        <v>1051.970000</v>
+        <v>1051.97</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.227000</v>
+        <v>-229.227</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>52334.394614</v>
+        <v>52334.394613999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>14.537332</v>
+        <v>14.537331999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.120000</v>
+        <v>1132.1199999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.854000</v>
+        <v>-365.85399999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>52345.007511</v>
+        <v>52345.007511000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>14.540280</v>
+        <v>14.540279999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.250000</v>
+        <v>1264.25</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.803000</v>
+        <v>-576.803</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>52355.920522</v>
       </c>
       <c r="BT12" s="1">
-        <v>14.543311</v>
+        <v>14.543310999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1412.580000</v>
+        <v>1412.58</v>
       </c>
       <c r="BV12" s="1">
-        <v>-802.560000</v>
+        <v>-802.56</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>52367.203978</v>
+        <v>52367.203977999998</v>
       </c>
       <c r="BY12" s="1">
         <v>14.546446</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1574.970000</v>
+        <v>1574.97</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1037.520000</v>
+        <v>-1037.52</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>52379.201211</v>
@@ -3291,75 +3707,75 @@
         <v>14.549778</v>
       </c>
       <c r="CE12" s="1">
-        <v>1985.980000</v>
+        <v>1985.98</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1588.240000</v>
+        <v>-1588.24</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>52207.399966</v>
+        <v>52207.399965999997</v>
       </c>
       <c r="B13" s="1">
         <v>14.502056</v>
       </c>
       <c r="C13" s="1">
-        <v>897.479000</v>
+        <v>897.47900000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-188.205000</v>
+        <v>-188.20500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>52218.108591</v>
+        <v>52218.108590999997</v>
       </c>
       <c r="G13" s="1">
-        <v>14.505030</v>
+        <v>14.50503</v>
       </c>
       <c r="H13" s="1">
-        <v>914.995000</v>
+        <v>914.995</v>
       </c>
       <c r="I13" s="1">
-        <v>-160.183000</v>
+        <v>-160.18299999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>52228.855902</v>
+        <v>52228.855902000003</v>
       </c>
       <c r="L13" s="1">
         <v>14.508016</v>
       </c>
       <c r="M13" s="1">
-        <v>938.846000</v>
+        <v>938.846</v>
       </c>
       <c r="N13" s="1">
-        <v>-116.367000</v>
+        <v>-116.367</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>52239.351715</v>
+        <v>52239.351714999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>14.510931</v>
+        <v>14.510930999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>946.081000</v>
+        <v>946.08100000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>-101.910000</v>
+        <v>-101.91</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>52249.865413</v>
@@ -3368,315 +3784,315 @@
         <v>14.513852</v>
       </c>
       <c r="W13" s="1">
-        <v>953.701000</v>
+        <v>953.70100000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.273300</v>
+        <v>-89.273300000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>52260.387082</v>
+        <v>52260.387082000001</v>
       </c>
       <c r="AA13" s="1">
         <v>14.516774</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.836000</v>
+        <v>961.83600000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.328800</v>
+        <v>-80.328800000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>52270.867050</v>
+        <v>52270.867050000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>14.519685</v>
+        <v>14.519685000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.137000</v>
+        <v>967.13699999999994</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.171400</v>
+        <v>-80.171400000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>52281.454123</v>
+        <v>52281.454123000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>14.522626</v>
+        <v>14.522626000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.532000</v>
+        <v>975.53200000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.229000</v>
+        <v>-88.228999999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>52291.880558</v>
+        <v>52291.880557999997</v>
       </c>
       <c r="AP13" s="1">
         <v>14.525522</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.860000</v>
+        <v>984.86</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.318000</v>
+        <v>-103.318</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>52302.606545</v>
+        <v>52302.606545000002</v>
       </c>
       <c r="AU13" s="1">
         <v>14.528502</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.415000</v>
+        <v>996.41499999999996</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.043000</v>
+        <v>-125.04300000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>52312.945619</v>
+        <v>52312.945618999998</v>
       </c>
       <c r="AZ13" s="1">
         <v>14.531374</v>
       </c>
       <c r="BA13" s="1">
-        <v>1006.160000</v>
+        <v>1006.16</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.934000</v>
+        <v>-143.934</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>52323.587322</v>
+        <v>52323.587321999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>14.534330</v>
+        <v>14.534330000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1051.970000</v>
+        <v>1051.97</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.241000</v>
+        <v>-229.24100000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>52334.813765</v>
+        <v>52334.813764999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>14.537448</v>
+        <v>14.537447999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.120000</v>
+        <v>1132.1199999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.827000</v>
+        <v>-365.827</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>52345.428120</v>
+        <v>52345.428119999997</v>
       </c>
       <c r="BO13" s="1">
         <v>14.540397</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.270000</v>
+        <v>1264.27</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.783000</v>
+        <v>-576.78300000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>52356.334649</v>
+        <v>52356.334648999997</v>
       </c>
       <c r="BT13" s="1">
         <v>14.543426</v>
       </c>
       <c r="BU13" s="1">
-        <v>1412.600000</v>
+        <v>1412.6</v>
       </c>
       <c r="BV13" s="1">
-        <v>-802.591000</v>
+        <v>-802.59100000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>52367.662282</v>
+        <v>52367.662281999998</v>
       </c>
       <c r="BY13" s="1">
         <v>14.546573</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1574.850000</v>
+        <v>1574.85</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1037.430000</v>
+        <v>-1037.43</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>52379.719068</v>
+        <v>52379.719067999999</v>
       </c>
       <c r="CD13" s="1">
         <v>14.549922</v>
       </c>
       <c r="CE13" s="1">
-        <v>1986.260000</v>
+        <v>1986.26</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1586.500000</v>
+        <v>-1586.5</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>52208.082430</v>
+        <v>52208.082430000002</v>
       </c>
       <c r="B14" s="1">
         <v>14.502245</v>
       </c>
       <c r="C14" s="1">
-        <v>897.561000</v>
+        <v>897.56100000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>-188.143000</v>
+        <v>-188.143</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>52218.450830</v>
+        <v>52218.450830000002</v>
       </c>
       <c r="G14" s="1">
         <v>14.505125</v>
       </c>
       <c r="H14" s="1">
-        <v>914.989000</v>
+        <v>914.98900000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-160.210000</v>
+        <v>-160.21</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>52229.201088</v>
+        <v>52229.201088000002</v>
       </c>
       <c r="L14" s="1">
         <v>14.508111</v>
       </c>
       <c r="M14" s="1">
-        <v>938.720000</v>
+        <v>938.72</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.285000</v>
+        <v>-116.285</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>52239.698916</v>
+        <v>52239.698916000001</v>
       </c>
       <c r="Q14" s="1">
         <v>14.511027</v>
       </c>
       <c r="R14" s="1">
-        <v>946.099000</v>
+        <v>946.09900000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-101.881000</v>
+        <v>-101.881</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>52250.507268</v>
+        <v>52250.507268000001</v>
       </c>
       <c r="V14" s="1">
-        <v>14.514030</v>
+        <v>14.51403</v>
       </c>
       <c r="W14" s="1">
-        <v>953.690000</v>
+        <v>953.69</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.218900</v>
+        <v>-89.218900000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>52260.832983</v>
       </c>
       <c r="AA14" s="1">
-        <v>14.516898</v>
+        <v>14.516897999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.785000</v>
+        <v>961.78499999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.404900</v>
+        <v>-80.404899999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>52271.244474</v>
+        <v>52271.244473999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>14.519790</v>
+        <v>14.51979</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.145000</v>
+        <v>967.14499999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.257800</v>
+        <v>-80.257800000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>52281.804300</v>
+        <v>52281.804300000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>14.522723</v>
+        <v>14.522722999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.500000</v>
+        <v>975.5</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.211500</v>
+        <v>-88.211500000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>52292.262982</v>
@@ -3685,225 +4101,225 @@
         <v>14.525629</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.852000</v>
+        <v>984.85199999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.313000</v>
+        <v>-103.313</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>52302.970080</v>
+        <v>52302.970079999999</v>
       </c>
       <c r="AU14" s="1">
         <v>14.528603</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.401000</v>
+        <v>996.40099999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.064000</v>
+        <v>-125.06399999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>52313.364739</v>
+        <v>52313.364738999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>14.531490</v>
+        <v>14.53149</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.170000</v>
+        <v>1006.17</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.928000</v>
+        <v>-143.928</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>52324.022771</v>
+        <v>52324.022771000004</v>
       </c>
       <c r="BE14" s="1">
-        <v>14.534451</v>
+        <v>14.534451000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1051.980000</v>
+        <v>1051.98</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.234000</v>
+        <v>-229.23400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>52335.164405</v>
+        <v>52335.164405000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>14.537546</v>
+        <v>14.537546000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.080000</v>
+        <v>1132.08</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.816000</v>
+        <v>-365.81599999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>52345.841783</v>
+        <v>52345.841783000003</v>
       </c>
       <c r="BO14" s="1">
         <v>14.540512</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.280000</v>
+        <v>1264.28</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.754000</v>
+        <v>-576.75400000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>52356.747320</v>
+        <v>52356.747320000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>14.543541</v>
+        <v>14.543540999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1412.660000</v>
+        <v>1412.66</v>
       </c>
       <c r="BV14" s="1">
-        <v>-802.583000</v>
+        <v>-802.58299999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>52368.109705</v>
+        <v>52368.109705000003</v>
       </c>
       <c r="BY14" s="1">
         <v>14.546697</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1574.840000</v>
+        <v>1574.84</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1037.660000</v>
+        <v>-1037.6600000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>52380.567725</v>
+        <v>52380.567725000001</v>
       </c>
       <c r="CD14" s="1">
         <v>14.550158</v>
       </c>
       <c r="CE14" s="1">
-        <v>1984.370000</v>
+        <v>1984.37</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1586.860000</v>
+        <v>-1586.86</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>52208.419212</v>
+        <v>52208.419212000001</v>
       </c>
       <c r="B15" s="1">
-        <v>14.502339</v>
+        <v>14.502338999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>897.496000</v>
+        <v>897.49599999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-187.918000</v>
+        <v>-187.91800000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>52218.796511</v>
       </c>
       <c r="G15" s="1">
-        <v>14.505221</v>
+        <v>14.505221000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>914.740000</v>
+        <v>914.74</v>
       </c>
       <c r="I15" s="1">
-        <v>-160.065000</v>
+        <v>-160.065</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>52229.866756</v>
+        <v>52229.866756000003</v>
       </c>
       <c r="L15" s="1">
         <v>14.508296</v>
       </c>
       <c r="M15" s="1">
-        <v>938.711000</v>
+        <v>938.71100000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-116.192000</v>
+        <v>-116.19199999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>52240.356115</v>
+        <v>52240.356115000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>14.511210</v>
+        <v>14.51121</v>
       </c>
       <c r="R15" s="1">
-        <v>946.123000</v>
+        <v>946.12300000000005</v>
       </c>
       <c r="S15" s="1">
-        <v>-101.865000</v>
+        <v>-101.86499999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>52250.894117</v>
+        <v>52250.894117000003</v>
       </c>
       <c r="V15" s="1">
         <v>14.514137</v>
       </c>
       <c r="W15" s="1">
-        <v>953.692000</v>
+        <v>953.69200000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.186900</v>
+        <v>-89.186899999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>52261.089911</v>
+        <v>52261.089911000003</v>
       </c>
       <c r="AA15" s="1">
         <v>14.516969</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.798000</v>
+        <v>961.798</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.411700</v>
+        <v>-80.411699999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>52271.586249</v>
@@ -3912,210 +4328,210 @@
         <v>14.519885</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.128000</v>
+        <v>967.12800000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.300200</v>
+        <v>-80.300200000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>52282.152987</v>
+        <v>52282.152987000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>14.522820</v>
+        <v>14.522819999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.525000</v>
+        <v>975.52499999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.192100</v>
+        <v>-88.192099999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>52292.623564</v>
+        <v>52292.623564000001</v>
       </c>
       <c r="AP15" s="1">
         <v>14.525729</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.871000</v>
+        <v>984.87099999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.319000</v>
+        <v>-103.319</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>52303.395151</v>
+        <v>52303.395150999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>14.528721</v>
+        <v>14.528721000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.413000</v>
+        <v>996.41300000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.057000</v>
+        <v>-125.057</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>52313.663331</v>
+        <v>52313.663331000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>14.531573</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.180000</v>
+        <v>1006.18</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.940000</v>
+        <v>-143.94</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>52324.301524</v>
+        <v>52324.301524000002</v>
       </c>
       <c r="BE15" s="1">
         <v>14.534528</v>
       </c>
       <c r="BF15" s="1">
-        <v>1051.980000</v>
+        <v>1051.98</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.253000</v>
+        <v>-229.25299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>52335.540404</v>
+        <v>52335.540403999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>14.537650</v>
+        <v>14.537649999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.120000</v>
+        <v>1132.1199999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.865000</v>
+        <v>-365.86500000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>52346.248018</v>
+        <v>52346.248017999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>14.540624</v>
+        <v>14.540623999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.250000</v>
+        <v>1264.25</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.790000</v>
+        <v>-576.79</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>52357.161479</v>
+        <v>52357.161479000002</v>
       </c>
       <c r="BT15" s="1">
         <v>14.543656</v>
       </c>
       <c r="BU15" s="1">
-        <v>1412.650000</v>
+        <v>1412.65</v>
       </c>
       <c r="BV15" s="1">
-        <v>-802.472000</v>
+        <v>-802.47199999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>52368.531603</v>
+        <v>52368.531603000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>14.546814</v>
+        <v>14.546813999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1574.800000</v>
+        <v>1574.8</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1037.470000</v>
+        <v>-1037.47</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>52380.763843</v>
+        <v>52380.763843000001</v>
       </c>
       <c r="CD15" s="1">
         <v>14.550212</v>
       </c>
       <c r="CE15" s="1">
-        <v>1985.230000</v>
+        <v>1985.23</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1586.560000</v>
+        <v>-1586.56</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>52208.767445</v>
+        <v>52208.767444999998</v>
       </c>
       <c r="B16" s="1">
         <v>14.502435</v>
       </c>
       <c r="C16" s="1">
-        <v>897.535000</v>
+        <v>897.53499999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-187.832000</v>
+        <v>-187.83199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>52219.459661</v>
+        <v>52219.459661000001</v>
       </c>
       <c r="G16" s="1">
         <v>14.505405</v>
       </c>
       <c r="H16" s="1">
-        <v>915.278000</v>
+        <v>915.27800000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-159.992000</v>
+        <v>-159.99199999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>52230.240704</v>
+        <v>52230.240704000003</v>
       </c>
       <c r="L16" s="1">
-        <v>14.508400</v>
+        <v>14.5084</v>
       </c>
       <c r="M16" s="1">
-        <v>938.857000</v>
+        <v>938.85699999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-116.367000</v>
+        <v>-116.367</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>52240.746992</v>
@@ -4124,193 +4540,193 @@
         <v>14.511319</v>
       </c>
       <c r="R16" s="1">
-        <v>946.118000</v>
+        <v>946.11800000000005</v>
       </c>
       <c r="S16" s="1">
-        <v>-101.929000</v>
+        <v>-101.929</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>52251.240859</v>
+        <v>52251.240858999998</v>
       </c>
       <c r="V16" s="1">
         <v>14.514234</v>
       </c>
       <c r="W16" s="1">
-        <v>953.553000</v>
+        <v>953.553</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.227100</v>
+        <v>-89.227099999999993</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>52261.437079</v>
+        <v>52261.437079000003</v>
       </c>
       <c r="AA16" s="1">
         <v>14.517066</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.792000</v>
+        <v>961.79200000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.363400</v>
+        <v>-80.363399999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>52271.930440</v>
+        <v>52271.930439999996</v>
       </c>
       <c r="AF16" s="1">
         <v>14.519981</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.235000</v>
+        <v>967.23500000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.203800</v>
+        <v>-80.203800000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>52282.566193</v>
+        <v>52282.566192999999</v>
       </c>
       <c r="AK16" s="1">
         <v>14.522935</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.532000</v>
+        <v>975.53200000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.221000</v>
+        <v>-88.221000000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>52293.039180</v>
+        <v>52293.03918</v>
       </c>
       <c r="AP16" s="1">
-        <v>14.525844</v>
+        <v>14.525843999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.869000</v>
+        <v>984.86900000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.327000</v>
+        <v>-103.327</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>52303.700190</v>
+        <v>52303.700190000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>14.528806</v>
+        <v>14.528805999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.404000</v>
+        <v>996.404</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.055000</v>
+        <v>-125.05500000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>52314.022434</v>
+        <v>52314.022433999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>14.531673</v>
       </c>
       <c r="BA16" s="1">
-        <v>1006.150000</v>
+        <v>1006.15</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.953000</v>
+        <v>-143.953</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>52324.673558</v>
+        <v>52324.673558000002</v>
       </c>
       <c r="BE16" s="1">
         <v>14.534632</v>
       </c>
       <c r="BF16" s="1">
-        <v>1051.970000</v>
+        <v>1051.97</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.252000</v>
+        <v>-229.25200000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>52335.914852</v>
+        <v>52335.914852000002</v>
       </c>
       <c r="BJ16" s="1">
         <v>14.537754</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.070000</v>
+        <v>1132.07</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.810000</v>
+        <v>-365.81</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>52346.668613</v>
+        <v>52346.668613000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>14.540741</v>
+        <v>14.540741000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.240000</v>
+        <v>1264.24</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.788000</v>
+        <v>-576.78800000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>52357.600967</v>
+        <v>52357.600966999998</v>
       </c>
       <c r="BT16" s="1">
         <v>14.543778</v>
       </c>
       <c r="BU16" s="1">
-        <v>1412.710000</v>
+        <v>1412.71</v>
       </c>
       <c r="BV16" s="1">
-        <v>-802.463000</v>
+        <v>-802.46299999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>52368.954856</v>
+        <v>52368.954855999997</v>
       </c>
       <c r="BY16" s="1">
         <v>14.546932</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1574.810000</v>
+        <v>1574.81</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1037.560000</v>
+        <v>-1037.56</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>52381.290857</v>
@@ -4319,180 +4735,180 @@
         <v>14.550359</v>
       </c>
       <c r="CE16" s="1">
-        <v>1985.950000</v>
+        <v>1985.95</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1586.330000</v>
+        <v>-1586.33</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>52209.413692</v>
+        <v>52209.413692000002</v>
       </c>
       <c r="B17" s="1">
         <v>14.502615</v>
       </c>
       <c r="C17" s="1">
-        <v>897.545000</v>
+        <v>897.54499999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-187.270000</v>
+        <v>-187.27</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>52219.832653</v>
+        <v>52219.832652999998</v>
       </c>
       <c r="G17" s="1">
         <v>14.505509</v>
       </c>
       <c r="H17" s="1">
-        <v>915.097000</v>
+        <v>915.09699999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-159.725000</v>
+        <v>-159.72499999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>52230.583936</v>
+        <v>52230.583936000003</v>
       </c>
       <c r="L17" s="1">
-        <v>14.508496</v>
+        <v>14.508495999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>938.709000</v>
+        <v>938.70899999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-116.362000</v>
+        <v>-116.36199999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>52241.094161</v>
+        <v>52241.094161000001</v>
       </c>
       <c r="Q17" s="1">
         <v>14.511415</v>
       </c>
       <c r="R17" s="1">
-        <v>946.094000</v>
+        <v>946.09400000000005</v>
       </c>
       <c r="S17" s="1">
-        <v>-101.923000</v>
+        <v>-101.923</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>52251.590038</v>
+        <v>52251.590038000002</v>
       </c>
       <c r="V17" s="1">
         <v>14.514331</v>
       </c>
       <c r="W17" s="1">
-        <v>953.580000</v>
+        <v>953.58</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.250500</v>
+        <v>-89.250500000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>52261.850742</v>
+        <v>52261.850742000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>14.517181</v>
+        <v>14.517181000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.785000</v>
+        <v>961.78499999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.347100</v>
+        <v>-80.347099999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>52272.346087</v>
+        <v>52272.346086999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>14.520096</v>
+        <v>14.520096000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.197000</v>
+        <v>967.197</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.094700</v>
+        <v>-80.094700000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>52282.858793</v>
+        <v>52282.858792999999</v>
       </c>
       <c r="AK17" s="1">
         <v>14.523016</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.520000</v>
+        <v>975.52</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.208700</v>
+        <v>-88.208699999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>52293.347196</v>
+        <v>52293.347196000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>14.525930</v>
+        <v>14.525930000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.860000</v>
+        <v>984.86</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.335000</v>
+        <v>-103.33499999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>52304.064751</v>
+        <v>52304.064750999998</v>
       </c>
       <c r="AU17" s="1">
         <v>14.528907</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.385000</v>
+        <v>996.38499999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.059000</v>
+        <v>-125.059</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>52314.381537</v>
+        <v>52314.381537000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>14.531773</v>
+        <v>14.531772999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.170000</v>
+        <v>1006.17</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.933000</v>
+        <v>-143.93299999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>52325.034625</v>
@@ -4501,270 +4917,270 @@
         <v>14.534732</v>
       </c>
       <c r="BF17" s="1">
-        <v>1051.970000</v>
+        <v>1051.97</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.248000</v>
+        <v>-229.24799999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>52336.667284</v>
+        <v>52336.667284000003</v>
       </c>
       <c r="BJ17" s="1">
         <v>14.537963</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.110000</v>
+        <v>1132.1099999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.838000</v>
+        <v>-365.83800000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>52347.062437</v>
+        <v>52347.062437000001</v>
       </c>
       <c r="BO17" s="1">
         <v>14.540851</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.250000</v>
+        <v>1264.25</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.790000</v>
+        <v>-576.79</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>52358.030472</v>
+        <v>52358.030471999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>14.543897</v>
+        <v>14.543896999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1412.840000</v>
+        <v>1412.84</v>
       </c>
       <c r="BV17" s="1">
-        <v>-802.384000</v>
+        <v>-802.38400000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>52369.380457</v>
+        <v>52369.380456999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>14.547050</v>
+        <v>14.54705</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1575.040000</v>
+        <v>1575.04</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1037.510000</v>
+        <v>-1037.51</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>52382.111240</v>
+        <v>52382.111239999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>14.550586</v>
+        <v>14.550585999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1984.200000</v>
+        <v>1984.2</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1587.070000</v>
+        <v>-1587.07</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>52209.789194</v>
+        <v>52209.789193999997</v>
       </c>
       <c r="B18" s="1">
-        <v>14.502719</v>
+        <v>14.502719000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>897.352000</v>
+        <v>897.35199999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-187.195000</v>
+        <v>-187.19499999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>52220.178142</v>
+        <v>52220.178141999997</v>
       </c>
       <c r="G18" s="1">
-        <v>14.505605</v>
+        <v>14.505604999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>914.500000</v>
+        <v>914.5</v>
       </c>
       <c r="I18" s="1">
-        <v>-160.080000</v>
+        <v>-160.08000000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>52230.930142</v>
+        <v>52230.930141999997</v>
       </c>
       <c r="L18" s="1">
         <v>14.508592</v>
       </c>
       <c r="M18" s="1">
-        <v>938.816000</v>
+        <v>938.81600000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-116.387000</v>
+        <v>-116.387</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>52241.444832</v>
+        <v>52241.444832000001</v>
       </c>
       <c r="Q18" s="1">
         <v>14.511512</v>
       </c>
       <c r="R18" s="1">
-        <v>946.062000</v>
+        <v>946.06200000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-101.930000</v>
+        <v>-101.93</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>52252.017556</v>
+        <v>52252.017555999999</v>
       </c>
       <c r="V18" s="1">
-        <v>14.514449</v>
+        <v>14.514449000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>953.706000</v>
+        <v>953.70600000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.203300</v>
+        <v>-89.203299999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>52262.135445</v>
       </c>
       <c r="AA18" s="1">
-        <v>14.517260</v>
+        <v>14.51726</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.826000</v>
+        <v>961.82600000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.421700</v>
+        <v>-80.421700000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>52272.640382</v>
+        <v>52272.640381999998</v>
       </c>
       <c r="AF18" s="1">
         <v>14.520178</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.041000</v>
+        <v>967.04100000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.141700</v>
+        <v>-80.1417</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>52283.205994</v>
+        <v>52283.205994000004</v>
       </c>
       <c r="AK18" s="1">
         <v>14.523113</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.516000</v>
+        <v>975.51599999999996</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.205600</v>
+        <v>-88.205600000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>52293.707788</v>
       </c>
       <c r="AP18" s="1">
-        <v>14.526030</v>
+        <v>14.52603</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.859000</v>
+        <v>984.85900000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.321000</v>
+        <v>-103.321</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>52304.428317</v>
+        <v>52304.428316999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>14.529008</v>
+        <v>14.529007999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.416000</v>
+        <v>996.41600000000005</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.090000</v>
+        <v>-125.09</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>52315.109200</v>
+        <v>52315.109199999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>14.531975</v>
+        <v>14.531974999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.150000</v>
+        <v>1006.15</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.935000</v>
+        <v>-143.935</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>52325.757777</v>
+        <v>52325.757776999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>14.534933</v>
+        <v>14.534933000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1051.980000</v>
+        <v>1051.98</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.211000</v>
+        <v>-229.21100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>52337.040276</v>
@@ -4773,90 +5189,90 @@
         <v>14.538067</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.080000</v>
+        <v>1132.08</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.827000</v>
+        <v>-365.827</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>52347.460228</v>
+        <v>52347.460228000004</v>
       </c>
       <c r="BO18" s="1">
-        <v>14.540961</v>
+        <v>14.540960999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.250000</v>
+        <v>1264.25</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.804000</v>
+        <v>-576.80399999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>52358.441198</v>
       </c>
       <c r="BT18" s="1">
-        <v>14.544011</v>
+        <v>14.544010999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1412.790000</v>
+        <v>1412.79</v>
       </c>
       <c r="BV18" s="1">
-        <v>-802.255000</v>
+        <v>-802.255</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>52370.110567</v>
+        <v>52370.110567000003</v>
       </c>
       <c r="BY18" s="1">
         <v>14.547253</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1574.920000</v>
+        <v>1574.92</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1037.470000</v>
+        <v>-1037.47</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>52382.361256</v>
+        <v>52382.361255999997</v>
       </c>
       <c r="CD18" s="1">
         <v>14.550656</v>
       </c>
       <c r="CE18" s="1">
-        <v>1985.400000</v>
+        <v>1985.4</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1588.650000</v>
+        <v>-1588.65</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>52210.132891</v>
+        <v>52210.132891000001</v>
       </c>
       <c r="B19" s="1">
         <v>14.502815</v>
       </c>
       <c r="C19" s="1">
-        <v>897.360000</v>
+        <v>897.36</v>
       </c>
       <c r="D19" s="1">
-        <v>-186.768000</v>
+        <v>-186.768</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>52220.522589</v>
@@ -4865,13 +5281,13 @@
         <v>14.505701</v>
       </c>
       <c r="H19" s="1">
-        <v>914.955000</v>
+        <v>914.95500000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-160.016000</v>
+        <v>-160.01599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>52231.359181</v>
@@ -4880,163 +5296,163 @@
         <v>14.508711</v>
       </c>
       <c r="M19" s="1">
-        <v>938.704000</v>
+        <v>938.70399999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.298000</v>
+        <v>-116.298</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>52241.873413</v>
+        <v>52241.873413000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>14.511632</v>
+        <v>14.511632000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>946.077000</v>
+        <v>946.077</v>
       </c>
       <c r="S19" s="1">
-        <v>-101.940000</v>
+        <v>-101.94</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>52252.290389</v>
+        <v>52252.290389000002</v>
       </c>
       <c r="V19" s="1">
-        <v>14.514525</v>
+        <v>14.514525000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>953.669000</v>
+        <v>953.66899999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.320900</v>
+        <v>-89.320899999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>52262.483636</v>
+        <v>52262.483635999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>14.517357</v>
+        <v>14.517357000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.841000</v>
+        <v>961.84100000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.364200</v>
+        <v>-80.364199999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>52272.986918</v>
+        <v>52272.986918000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>14.520274</v>
+        <v>14.520274000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.043000</v>
+        <v>967.04300000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.117100</v>
+        <v>-80.117099999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>52283.553690</v>
+        <v>52283.553690000001</v>
       </c>
       <c r="AK19" s="1">
         <v>14.523209</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.545000</v>
+        <v>975.54499999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.211000</v>
+        <v>-88.210999999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>52294.066928</v>
       </c>
       <c r="AP19" s="1">
-        <v>14.526130</v>
+        <v>14.52613</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.864000</v>
+        <v>984.86400000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.331000</v>
+        <v>-103.331</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>52305.163885</v>
+        <v>52305.163885000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>14.529212</v>
+        <v>14.529211999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.400000</v>
+        <v>996.4</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.043000</v>
+        <v>-125.04300000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>52315.484142</v>
+        <v>52315.484142000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>14.532079</v>
       </c>
       <c r="BA19" s="1">
-        <v>1006.160000</v>
+        <v>1006.16</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.960000</v>
+        <v>-143.96</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>52326.115926</v>
+        <v>52326.115925999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>14.535032</v>
+        <v>14.535031999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1051.950000</v>
+        <v>1051.95</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.228000</v>
+        <v>-229.22800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>52337.415250</v>
+        <v>52337.415249999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>14.538171</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.080000</v>
+        <v>1132.08</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.840000</v>
+        <v>-365.84</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>52348.189347</v>
@@ -5045,210 +5461,210 @@
         <v>14.541164</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.260000</v>
+        <v>1264.26</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.781000</v>
+        <v>-576.78099999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>52359.186149</v>
+        <v>52359.186149000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>14.544218</v>
+        <v>14.544218000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1412.810000</v>
+        <v>1412.81</v>
       </c>
       <c r="BV19" s="1">
-        <v>-802.239000</v>
+        <v>-802.23900000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>52370.242502</v>
+        <v>52370.242502000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>14.547290</v>
+        <v>14.54729</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1575.010000</v>
+        <v>1575.01</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1037.500000</v>
+        <v>-1037.5</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>52382.892941</v>
+        <v>52382.892940999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>14.550804</v>
+        <v>14.550803999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1985.710000</v>
+        <v>1985.71</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1586.370000</v>
+        <v>-1586.37</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>52210.561433</v>
+        <v>52210.561433000003</v>
       </c>
       <c r="B20" s="1">
         <v>14.502934</v>
       </c>
       <c r="C20" s="1">
-        <v>897.399000</v>
+        <v>897.399</v>
       </c>
       <c r="D20" s="1">
-        <v>-186.684000</v>
+        <v>-186.684</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>52220.943713</v>
+        <v>52220.943713000001</v>
       </c>
       <c r="G20" s="1">
         <v>14.505818</v>
       </c>
       <c r="H20" s="1">
-        <v>914.878000</v>
+        <v>914.87800000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-159.909000</v>
+        <v>-159.90899999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>52231.622093</v>
+        <v>52231.622092999998</v>
       </c>
       <c r="L20" s="1">
         <v>14.508784</v>
       </c>
       <c r="M20" s="1">
-        <v>938.635000</v>
+        <v>938.63499999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.294000</v>
+        <v>-116.294</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>52242.148656</v>
+        <v>52242.148655999998</v>
       </c>
       <c r="Q20" s="1">
         <v>14.511708</v>
       </c>
       <c r="R20" s="1">
-        <v>946.074000</v>
+        <v>946.07399999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-101.891000</v>
+        <v>-101.89100000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>52252.637555</v>
+        <v>52252.637555000001</v>
       </c>
       <c r="V20" s="1">
-        <v>14.514622</v>
+        <v>14.514621999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>953.645000</v>
+        <v>953.64499999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.171800</v>
+        <v>-89.171800000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>52262.833316</v>
+        <v>52262.833315999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>14.517454</v>
+        <v>14.517454000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.842000</v>
+        <v>961.84199999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.370400</v>
+        <v>-80.370400000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>52273.330150</v>
+        <v>52273.330150000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>14.520369</v>
+        <v>14.520369000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.241000</v>
+        <v>967.24099999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.048700</v>
+        <v>-80.048699999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>52284.253085</v>
+        <v>52284.253084999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>14.523404</v>
+        <v>14.523403999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.528000</v>
+        <v>975.52800000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.214900</v>
+        <v>-88.2149</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>52294.788239</v>
+        <v>52294.788239000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>14.526330</v>
+        <v>14.52633</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.863000</v>
+        <v>984.86300000000006</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.337000</v>
+        <v>-103.337</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>52305.546827</v>
+        <v>52305.546826999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>14.529319</v>
+        <v>14.529318999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.412000</v>
+        <v>996.41200000000003</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.037000</v>
+        <v>-125.03700000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>52315.871518</v>
@@ -5257,120 +5673,120 @@
         <v>14.532187</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.150000</v>
+        <v>1006.15</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.932000</v>
+        <v>-143.93199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>52326.474529</v>
+        <v>52326.474528999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>14.535132</v>
+        <v>14.535132000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1051.970000</v>
+        <v>1051.97</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.245000</v>
+        <v>-229.245</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>52338.106707</v>
+        <v>52338.106706999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>14.538363</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.100000</v>
+        <v>1132.0999999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.804000</v>
+        <v>-365.80399999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>52348.696754</v>
+        <v>52348.696753999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>14.541305</v>
+        <v>14.541304999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.250000</v>
+        <v>1264.25</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.821000</v>
+        <v>-576.82100000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>52359.299236</v>
+        <v>52359.299235999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>14.544250</v>
+        <v>14.54425</v>
       </c>
       <c r="BU20" s="1">
-        <v>1412.800000</v>
+        <v>1412.8</v>
       </c>
       <c r="BV20" s="1">
-        <v>-802.107000</v>
+        <v>-802.10699999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>52370.664071</v>
+        <v>52370.664070999999</v>
       </c>
       <c r="BY20" s="1">
         <v>14.547407</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1574.940000</v>
+        <v>1574.94</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1037.500000</v>
+        <v>-1037.5</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>52383.436549</v>
+        <v>52383.436548999998</v>
       </c>
       <c r="CD20" s="1">
         <v>14.550955</v>
       </c>
       <c r="CE20" s="1">
-        <v>1984.850000</v>
+        <v>1984.85</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1588.030000</v>
+        <v>-1588.03</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>52210.835721</v>
+        <v>52210.835721000003</v>
       </c>
       <c r="B21" s="1">
-        <v>14.503010</v>
+        <v>14.50301</v>
       </c>
       <c r="C21" s="1">
-        <v>897.350000</v>
+        <v>897.35</v>
       </c>
       <c r="D21" s="1">
-        <v>-186.753000</v>
+        <v>-186.75299999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>52221.218986</v>
@@ -5379,435 +5795,435 @@
         <v>14.505894</v>
       </c>
       <c r="H21" s="1">
-        <v>914.651000</v>
+        <v>914.65099999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-160.194000</v>
+        <v>-160.19399999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>52231.967805</v>
       </c>
       <c r="L21" s="1">
-        <v>14.508880</v>
+        <v>14.50888</v>
       </c>
       <c r="M21" s="1">
-        <v>938.751000</v>
+        <v>938.75099999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.415000</v>
+        <v>-116.41500000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>52242.500320</v>
+        <v>52242.500319999999</v>
       </c>
       <c r="Q21" s="1">
         <v>14.511806</v>
       </c>
       <c r="R21" s="1">
-        <v>946.114000</v>
+        <v>946.11400000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-101.930000</v>
+        <v>-101.93</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>52252.976819</v>
+        <v>52252.976819000003</v>
       </c>
       <c r="V21" s="1">
         <v>14.514716</v>
       </c>
       <c r="W21" s="1">
-        <v>953.734000</v>
+        <v>953.73400000000004</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.262000</v>
+        <v>-89.262</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>52263.531684</v>
+        <v>52263.531684000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>14.517648</v>
+        <v>14.517647999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.818000</v>
+        <v>961.81799999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.367500</v>
+        <v>-80.367500000000007</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>52274.016645</v>
+        <v>52274.016645000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>14.520560</v>
+        <v>14.52056</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.140000</v>
+        <v>967.14</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.137300</v>
+        <v>-80.137299999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>52284.599255</v>
+        <v>52284.599255000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>14.523500</v>
+        <v>14.5235</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.519000</v>
+        <v>975.51900000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.207700</v>
+        <v>-88.207700000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>52295.147179</v>
       </c>
       <c r="AP21" s="1">
-        <v>14.526430</v>
+        <v>14.52643</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.884000</v>
+        <v>984.88400000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.308000</v>
+        <v>-103.30800000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>52305.911851</v>
+        <v>52305.911850999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>14.529420</v>
+        <v>14.52942</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.410000</v>
+        <v>996.41</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.059000</v>
+        <v>-125.059</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>52316.540126</v>
       </c>
       <c r="AZ21" s="1">
-        <v>14.532372</v>
+        <v>14.532372000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.160000</v>
+        <v>1006.16</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.964000</v>
+        <v>-143.964</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>52327.147072</v>
       </c>
       <c r="BE21" s="1">
-        <v>14.535319</v>
+        <v>14.535318999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1051.980000</v>
+        <v>1051.98</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.220000</v>
+        <v>-229.22</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>52338.544672</v>
+        <v>52338.544672000004</v>
       </c>
       <c r="BJ21" s="1">
         <v>14.538485</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.100000</v>
+        <v>1132.0999999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.804000</v>
+        <v>-365.80399999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>52349.118355</v>
+        <v>52349.118354999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>14.541422</v>
+        <v>14.541422000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.230000</v>
+        <v>1264.23</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.752000</v>
+        <v>-576.75199999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>52359.737741</v>
+        <v>52359.737740999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>14.544372</v>
+        <v>14.544371999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1412.750000</v>
+        <v>1412.75</v>
       </c>
       <c r="BV21" s="1">
-        <v>-802.016000</v>
+        <v>-802.01599999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>52371.089669</v>
+        <v>52371.089669000001</v>
       </c>
       <c r="BY21" s="1">
         <v>14.547525</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1575.100000</v>
+        <v>1575.1</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1037.500000</v>
+        <v>-1037.5</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>52383.975700</v>
+        <v>52383.975700000003</v>
       </c>
       <c r="CD21" s="1">
         <v>14.551104</v>
       </c>
       <c r="CE21" s="1">
-        <v>1986.420000</v>
+        <v>1986.42</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1587.490000</v>
+        <v>-1587.49</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>52211.177960</v>
+        <v>52211.177960000001</v>
       </c>
       <c r="B22" s="1">
         <v>14.503105</v>
       </c>
       <c r="C22" s="1">
-        <v>897.468000</v>
+        <v>897.46799999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-186.985000</v>
+        <v>-186.98500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>52221.565179</v>
+        <v>52221.565178999997</v>
       </c>
       <c r="G22" s="1">
-        <v>14.505990</v>
+        <v>14.505990000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>914.334000</v>
+        <v>914.33399999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-159.606000</v>
+        <v>-159.60599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>52232.313980</v>
+        <v>52232.313979999999</v>
       </c>
       <c r="L22" s="1">
-        <v>14.508976</v>
+        <v>14.508976000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>938.444000</v>
+        <v>938.44399999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-115.683000</v>
+        <v>-115.68300000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>52242.846527</v>
+        <v>52242.846527000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>14.511902</v>
+        <v>14.511901999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>946.149000</v>
+        <v>946.149</v>
       </c>
       <c r="S22" s="1">
-        <v>-101.958000</v>
+        <v>-101.958</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>52253.664274</v>
+        <v>52253.664274000002</v>
       </c>
       <c r="V22" s="1">
-        <v>14.514907</v>
+        <v>14.514906999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>953.658000</v>
+        <v>953.65800000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.302500</v>
+        <v>-89.302499999999995</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>52263.877891</v>
+        <v>52263.877890999996</v>
       </c>
       <c r="AA22" s="1">
         <v>14.517744</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.771000</v>
+        <v>961.77099999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.474400</v>
+        <v>-80.474400000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>52274.360341</v>
       </c>
       <c r="AF22" s="1">
-        <v>14.520656</v>
+        <v>14.520656000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.136000</v>
+        <v>967.13599999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.156200</v>
+        <v>-80.156199999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>52284.945995</v>
+        <v>52284.945995000002</v>
       </c>
       <c r="AK22" s="1">
         <v>14.523596</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.531000</v>
+        <v>975.53099999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.197900</v>
+        <v>-88.197900000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>52295.811817</v>
+        <v>52295.811817000002</v>
       </c>
       <c r="AP22" s="1">
         <v>14.526614</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.885000</v>
+        <v>984.88499999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.304000</v>
+        <v>-103.304</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>52306.579466</v>
+        <v>52306.579466000003</v>
       </c>
       <c r="AU22" s="1">
         <v>14.529605</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.401000</v>
+        <v>996.40099999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.034000</v>
+        <v>-125.03400000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>52316.949359</v>
+        <v>52316.949358999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>14.532486</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.160000</v>
+        <v>1006.16</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.946000</v>
+        <v>-143.946</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>52327.594960</v>
+        <v>52327.594960000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>14.535443</v>
+        <v>14.535443000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1051.960000</v>
+        <v>1051.96</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.226000</v>
+        <v>-229.226</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>52338.919648</v>
+        <v>52338.919648000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>14.538589</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.100000</v>
+        <v>1132.0999999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.833000</v>
+        <v>-365.83300000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>52349.514658</v>
@@ -5816,195 +6232,195 @@
         <v>14.541532</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.240000</v>
+        <v>1264.24</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.787000</v>
+        <v>-576.78700000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>52360.149909</v>
       </c>
       <c r="BT22" s="1">
-        <v>14.544486</v>
+        <v>14.544485999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1412.730000</v>
+        <v>1412.73</v>
       </c>
       <c r="BV22" s="1">
-        <v>-801.957000</v>
+        <v>-801.95699999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>52371.507766</v>
+        <v>52371.507766000002</v>
       </c>
       <c r="BY22" s="1">
         <v>14.547641</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1574.890000</v>
+        <v>1574.89</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1037.440000</v>
+        <v>-1037.44</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>52384.516371</v>
+        <v>52384.516370999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>14.551255</v>
+        <v>14.551254999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1984.590000</v>
+        <v>1984.59</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1586.770000</v>
+        <v>-1586.77</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>52211.518739</v>
+        <v>52211.518738999999</v>
       </c>
       <c r="B23" s="1">
-        <v>14.503200</v>
+        <v>14.5032</v>
       </c>
       <c r="C23" s="1">
-        <v>897.223000</v>
+        <v>897.22299999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-187.036000</v>
+        <v>-187.036</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>52221.908906</v>
+        <v>52221.908905999997</v>
       </c>
       <c r="G23" s="1">
         <v>14.506086</v>
       </c>
       <c r="H23" s="1">
-        <v>914.777000</v>
+        <v>914.77700000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-159.922000</v>
+        <v>-159.922</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>52233.006893</v>
+        <v>52233.006892999998</v>
       </c>
       <c r="L23" s="1">
         <v>14.509169</v>
       </c>
       <c r="M23" s="1">
-        <v>938.435000</v>
+        <v>938.43499999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-115.662000</v>
+        <v>-115.66200000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>52243.546383</v>
+        <v>52243.546383000001</v>
       </c>
       <c r="Q23" s="1">
         <v>14.512096</v>
       </c>
       <c r="R23" s="1">
-        <v>946.126000</v>
+        <v>946.12599999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-101.998000</v>
+        <v>-101.998</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>52254.007504</v>
+        <v>52254.007504000001</v>
       </c>
       <c r="V23" s="1">
-        <v>14.515002</v>
+        <v>14.515002000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>953.624000</v>
+        <v>953.62400000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.234600</v>
+        <v>-89.2346</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>52264.226082</v>
+        <v>52264.226082000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>14.517841</v>
+        <v>14.517841000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.865000</v>
+        <v>961.86500000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.391000</v>
+        <v>-80.391000000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>52274.703076</v>
+        <v>52274.703075999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>14.520751</v>
+        <v>14.520751000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.243000</v>
+        <v>967.24300000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.254800</v>
+        <v>-80.254800000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>52285.601670</v>
+        <v>52285.601669999996</v>
       </c>
       <c r="AK23" s="1">
         <v>14.523778</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.529000</v>
+        <v>975.529</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.218400</v>
+        <v>-88.218400000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>52296.253784</v>
       </c>
       <c r="AP23" s="1">
-        <v>14.526737</v>
+        <v>14.526737000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.852000</v>
+        <v>984.85199999999998</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.317000</v>
+        <v>-103.31699999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>52307.038794</v>
@@ -6013,13 +6429,13 @@
         <v>14.529733</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.389000</v>
+        <v>996.38900000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.080000</v>
+        <v>-125.08</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>52317.336206</v>
@@ -6028,876 +6444,877 @@
         <v>14.532593</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.170000</v>
+        <v>1006.17</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.949000</v>
+        <v>-143.94900000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>52327.957534</v>
+        <v>52327.957534000001</v>
       </c>
       <c r="BE23" s="1">
         <v>14.535544</v>
       </c>
       <c r="BF23" s="1">
-        <v>1051.950000</v>
+        <v>1051.95</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.255000</v>
+        <v>-229.255</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>52339.294606</v>
+        <v>52339.294606000003</v>
       </c>
       <c r="BJ23" s="1">
         <v>14.538693</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.090000</v>
+        <v>1132.0899999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.813000</v>
+        <v>-365.81299999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>52349.937281</v>
+        <v>52349.937280999999</v>
       </c>
       <c r="BO23" s="1">
         <v>14.541649</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.220000</v>
+        <v>1264.22</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.810000</v>
+        <v>-576.80999999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>52360.580900</v>
+        <v>52360.580900000001</v>
       </c>
       <c r="BT23" s="1">
         <v>14.544606</v>
       </c>
       <c r="BU23" s="1">
-        <v>1412.720000</v>
+        <v>1412.72</v>
       </c>
       <c r="BV23" s="1">
-        <v>-801.898000</v>
+        <v>-801.89800000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>52371.954660</v>
+        <v>52371.954660000003</v>
       </c>
       <c r="BY23" s="1">
         <v>14.547765</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1574.880000</v>
+        <v>1574.88</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1037.490000</v>
+        <v>-1037.49</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>52385.054500</v>
+        <v>52385.054499999998</v>
       </c>
       <c r="CD23" s="1">
         <v>14.551404</v>
       </c>
       <c r="CE23" s="1">
-        <v>1985.350000</v>
+        <v>1985.35</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1588.580000</v>
+        <v>-1588.58</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>52212.202727</v>
+        <v>52212.202727000004</v>
       </c>
       <c r="B24" s="1">
-        <v>14.503390</v>
+        <v>14.50339</v>
       </c>
       <c r="C24" s="1">
-        <v>897.383000</v>
+        <v>897.38300000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-186.955000</v>
+        <v>-186.95500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>52222.596398</v>
+        <v>52222.596398000001</v>
       </c>
       <c r="G24" s="1">
-        <v>14.506277</v>
+        <v>14.506277000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>914.783000</v>
+        <v>914.78300000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-159.486000</v>
+        <v>-159.48599999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>52233.349627</v>
+        <v>52233.349627000003</v>
       </c>
       <c r="L24" s="1">
         <v>14.509264</v>
       </c>
       <c r="M24" s="1">
-        <v>938.581000</v>
+        <v>938.58100000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-115.470000</v>
+        <v>-115.47</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>52243.895566</v>
+        <v>52243.895565999999</v>
       </c>
       <c r="Q24" s="1">
         <v>14.512193</v>
       </c>
       <c r="R24" s="1">
-        <v>946.121000</v>
+        <v>946.12099999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-101.961000</v>
+        <v>-101.961</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>52254.354209</v>
+        <v>52254.354208999997</v>
       </c>
       <c r="V24" s="1">
         <v>14.515098</v>
       </c>
       <c r="W24" s="1">
-        <v>953.499000</v>
+        <v>953.49900000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.135800</v>
+        <v>-89.135800000000003</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>52264.883778</v>
+        <v>52264.883778000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>14.518023</v>
+        <v>14.518022999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.798000</v>
+        <v>961.798</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.372000</v>
+        <v>-80.372</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>52275.356560</v>
+        <v>52275.35656</v>
       </c>
       <c r="AF24" s="1">
         <v>14.520932</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.219000</v>
+        <v>967.21900000000005</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.232500</v>
+        <v>-80.232500000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>52286.004919</v>
+        <v>52286.004918999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>14.523890</v>
+        <v>14.52389</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.544000</v>
+        <v>975.54399999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.210700</v>
+        <v>-88.210700000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>52296.614376</v>
+        <v>52296.614375999998</v>
       </c>
       <c r="AP24" s="1">
         <v>14.526837</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.885000</v>
+        <v>984.88499999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.322000</v>
+        <v>-103.322</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>52307.404314</v>
+        <v>52307.404313999999</v>
       </c>
       <c r="AU24" s="1">
         <v>14.529835</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.417000</v>
+        <v>996.41700000000003</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.077000</v>
+        <v>-125.077</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>52317.695338</v>
+        <v>52317.695337999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>14.532693</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.160000</v>
+        <v>1006.16</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.938000</v>
+        <v>-143.93799999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>52328.318622</v>
+        <v>52328.318621999999</v>
       </c>
       <c r="BE24" s="1">
         <v>14.535644</v>
       </c>
       <c r="BF24" s="1">
-        <v>1051.950000</v>
+        <v>1051.95</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.241000</v>
+        <v>-229.24100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>52339.721681</v>
+        <v>52339.721681000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>14.538812</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.080000</v>
+        <v>1132.08</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.816000</v>
+        <v>-365.81599999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>52350.344960</v>
+        <v>52350.344960000002</v>
       </c>
       <c r="BO24" s="1">
         <v>14.541762</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.310000</v>
+        <v>1264.31</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.811000</v>
+        <v>-576.81100000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>52361.006000</v>
+        <v>52361.006000000001</v>
       </c>
       <c r="BT24" s="1">
         <v>14.544724</v>
       </c>
       <c r="BU24" s="1">
-        <v>1412.620000</v>
+        <v>1412.62</v>
       </c>
       <c r="BV24" s="1">
-        <v>-801.874000</v>
+        <v>-801.87400000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>52372.375267</v>
+        <v>52372.375267000003</v>
       </c>
       <c r="BY24" s="1">
         <v>14.547882</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1574.900000</v>
+        <v>1574.9</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1037.360000</v>
+        <v>-1037.3599999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>52385.597012</v>
+        <v>52385.597011999998</v>
       </c>
       <c r="CD24" s="1">
         <v>14.551555</v>
       </c>
       <c r="CE24" s="1">
-        <v>1985.280000</v>
+        <v>1985.28</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1586.400000</v>
+        <v>-1586.4</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>52212.545635</v>
+        <v>52212.545635000002</v>
       </c>
       <c r="B25" s="1">
         <v>14.503485</v>
       </c>
       <c r="C25" s="1">
-        <v>897.406000</v>
+        <v>897.40599999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-186.869000</v>
+        <v>-186.869</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>52222.941115</v>
+        <v>52222.941115000001</v>
       </c>
       <c r="G25" s="1">
         <v>14.506373</v>
       </c>
       <c r="H25" s="1">
-        <v>914.896000</v>
+        <v>914.89599999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-159.361000</v>
+        <v>-159.36099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>52233.702283</v>
+        <v>52233.702282999999</v>
       </c>
       <c r="L25" s="1">
-        <v>14.509362</v>
+        <v>14.509361999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>938.414000</v>
+        <v>938.41399999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-115.652000</v>
+        <v>-115.652</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>52244.548300</v>
+        <v>52244.548300000002</v>
       </c>
       <c r="Q25" s="1">
         <v>14.512375</v>
       </c>
       <c r="R25" s="1">
-        <v>946.093000</v>
+        <v>946.09299999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-101.928000</v>
+        <v>-101.928</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>52255.007440</v>
+        <v>52255.007440000001</v>
       </c>
       <c r="V25" s="1">
-        <v>14.515280</v>
+        <v>14.515280000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>953.662000</v>
+        <v>953.66200000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.202600</v>
+        <v>-89.202600000000004</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>52265.273138</v>
+        <v>52265.273137999997</v>
       </c>
       <c r="AA25" s="1">
         <v>14.518131</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.782000</v>
+        <v>961.78200000000004</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.466900</v>
+        <v>-80.466899999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>52275.731318</v>
+        <v>52275.731317999998</v>
       </c>
       <c r="AF25" s="1">
         <v>14.521036</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.222000</v>
+        <v>967.22199999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.229500</v>
+        <v>-80.229500000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>52286.342229</v>
+        <v>52286.342229000002</v>
       </c>
       <c r="AK25" s="1">
         <v>14.523984</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.519000</v>
+        <v>975.51900000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.194600</v>
+        <v>-88.194599999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>52296.974935</v>
+        <v>52296.974934999998</v>
       </c>
       <c r="AP25" s="1">
         <v>14.526937</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.869000</v>
+        <v>984.86900000000003</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.338000</v>
+        <v>-103.33799999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>52307.768905</v>
+        <v>52307.768904999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>14.529936</v>
+        <v>14.529935999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.416000</v>
+        <v>996.41600000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.064000</v>
+        <v>-125.06399999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>52318.116411</v>
+        <v>52318.116411000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>14.532810</v>
+        <v>14.53281</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.180000</v>
+        <v>1006.18</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.937000</v>
+        <v>-143.93700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>52328.736751</v>
+        <v>52328.736750999997</v>
       </c>
       <c r="BE25" s="1">
-        <v>14.535760</v>
+        <v>14.53576</v>
       </c>
       <c r="BF25" s="1">
-        <v>1051.970000</v>
+        <v>1051.97</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.241000</v>
+        <v>-229.24100000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>52340.067655</v>
+        <v>52340.067654999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>14.538908</v>
+        <v>14.538907999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.120000</v>
+        <v>1132.1199999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.849000</v>
+        <v>-365.84899999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>52350.752176</v>
+        <v>52350.752176000002</v>
       </c>
       <c r="BO25" s="1">
         <v>14.541876</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.240000</v>
+        <v>1264.24</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.747000</v>
+        <v>-576.74699999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>52361.419637</v>
+        <v>52361.419636999999</v>
       </c>
       <c r="BT25" s="1">
         <v>14.544839</v>
       </c>
       <c r="BU25" s="1">
-        <v>1412.470000</v>
+        <v>1412.47</v>
       </c>
       <c r="BV25" s="1">
-        <v>-801.862000</v>
+        <v>-801.86199999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>52372.800867</v>
+        <v>52372.800866999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>14.548000</v>
+        <v>14.548</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1574.970000</v>
+        <v>1574.97</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1037.530000</v>
+        <v>-1037.53</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>52386.133794</v>
+        <v>52386.133794000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>14.551704</v>
+        <v>14.551704000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1984.750000</v>
+        <v>1984.75</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1588.120000</v>
+        <v>-1588.12</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>52212.886710</v>
+        <v>52212.886709999999</v>
       </c>
       <c r="B26" s="1">
-        <v>14.503580</v>
+        <v>14.503579999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>897.589000</v>
+        <v>897.58900000000006</v>
       </c>
       <c r="D26" s="1">
-        <v>-186.849000</v>
+        <v>-186.84899999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>52223.286296</v>
+        <v>52223.286295999998</v>
       </c>
       <c r="G26" s="1">
         <v>14.506468</v>
       </c>
       <c r="H26" s="1">
-        <v>914.383000</v>
+        <v>914.38300000000004</v>
       </c>
       <c r="I26" s="1">
-        <v>-159.115000</v>
+        <v>-159.11500000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>52234.352042</v>
+        <v>52234.352041999999</v>
       </c>
       <c r="L26" s="1">
         <v>14.509542</v>
       </c>
       <c r="M26" s="1">
-        <v>938.422000</v>
+        <v>938.42200000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-115.660000</v>
+        <v>-115.66</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>52244.938652</v>
+        <v>52244.938651999997</v>
       </c>
       <c r="Q26" s="1">
         <v>14.512483</v>
       </c>
       <c r="R26" s="1">
-        <v>946.130000</v>
+        <v>946.13</v>
       </c>
       <c r="S26" s="1">
-        <v>-101.924000</v>
+        <v>-101.92400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>52255.391838</v>
+        <v>52255.391838000003</v>
       </c>
       <c r="V26" s="1">
         <v>14.515387</v>
       </c>
       <c r="W26" s="1">
-        <v>953.676000</v>
+        <v>953.67600000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.194100</v>
+        <v>-89.194100000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>52265.622816</v>
+        <v>52265.622816000003</v>
       </c>
       <c r="AA26" s="1">
         <v>14.518229</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.875000</v>
+        <v>961.875</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.393400</v>
+        <v>-80.3934</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>52276.073523</v>
+        <v>52276.073522999999</v>
       </c>
       <c r="AF26" s="1">
         <v>14.521132</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.212000</v>
+        <v>967.21199999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.194300</v>
+        <v>-80.194299999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>52286.690886</v>
+        <v>52286.690885999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>14.524081</v>
+        <v>14.524081000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.545000</v>
+        <v>975.54499999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.212800</v>
+        <v>-88.212800000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>52297.397032</v>
+        <v>52297.397032000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>14.527055</v>
+        <v>14.527055000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.863000</v>
+        <v>984.86300000000006</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.300000</v>
+        <v>-103.3</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>52308.192489</v>
+        <v>52308.192489000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>14.530053</v>
+        <v>14.530053000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.399000</v>
+        <v>996.399</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.038000</v>
+        <v>-125.038</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>52318.413051</v>
+        <v>52318.413051000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>14.532893</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.170000</v>
+        <v>1006.17</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.937000</v>
+        <v>-143.93700000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>52329.084940</v>
+        <v>52329.084940000001</v>
       </c>
       <c r="BE26" s="1">
         <v>14.535857</v>
       </c>
       <c r="BF26" s="1">
-        <v>1051.990000</v>
+        <v>1051.99</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.236000</v>
+        <v>-229.23599999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>52340.444815</v>
+        <v>52340.444815000003</v>
       </c>
       <c r="BJ26" s="1">
         <v>14.539012</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.090000</v>
+        <v>1132.0899999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.775000</v>
+        <v>-365.77499999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>52351.148981</v>
+        <v>52351.148980999998</v>
       </c>
       <c r="BO26" s="1">
         <v>14.541986</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.210000</v>
+        <v>1264.21</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.743000</v>
+        <v>-576.74300000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>52361.850658</v>
+        <v>52361.850658000003</v>
       </c>
       <c r="BT26" s="1">
         <v>14.544959</v>
       </c>
       <c r="BU26" s="1">
-        <v>1412.410000</v>
+        <v>1412.41</v>
       </c>
       <c r="BV26" s="1">
-        <v>-801.875000</v>
+        <v>-801.875</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>52373.246738</v>
+        <v>52373.246738000002</v>
       </c>
       <c r="BY26" s="1">
         <v>14.548124</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1574.790000</v>
+        <v>1574.79</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1037.480000</v>
+        <v>-1037.48</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>52386.673969</v>
+        <v>52386.673969000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>14.551854</v>
+        <v>14.551854000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1986.420000</v>
+        <v>1986.42</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1587.370000</v>
+        <v>-1587.37</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>